--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2EB3EF-221C-4249-BA60-7EE433440A18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570427B1-E0A5-4CD5-AAF0-EDEA7A4840CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10560" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
+    <workbookView xWindow="16275" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Differences" sheetId="2" r:id="rId2"/>
+    <sheet name="FOC Check" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
@@ -182,6 +183,87 @@
   </si>
   <si>
     <t>Medium low market share, B dominant brand, 2 dominant store, equal effect</t>
+  </si>
+  <si>
+    <t>PASTE A ROW BELOW TO CHECK:</t>
+  </si>
+  <si>
+    <t>q_1A</t>
+  </si>
+  <si>
+    <t>q_1B</t>
+  </si>
+  <si>
+    <t>dq_1A/dp_1A</t>
+  </si>
+  <si>
+    <t>v_1A</t>
+  </si>
+  <si>
+    <t>v_1B</t>
+  </si>
+  <si>
+    <t>v_2A</t>
+  </si>
+  <si>
+    <t>v_2B</t>
+  </si>
+  <si>
+    <t>x_1A</t>
+  </si>
+  <si>
+    <t>x_1B</t>
+  </si>
+  <si>
+    <t>x_2A</t>
+  </si>
+  <si>
+    <t>x_2B</t>
+  </si>
+  <si>
+    <t>sum(exp(vj))</t>
+  </si>
+  <si>
+    <t>FOC calculated values:</t>
+  </si>
+  <si>
+    <t>dq_1B/dp_1B</t>
+  </si>
+  <si>
+    <t>dq_1B/dp_1A = dq_1A/dp_1B</t>
+  </si>
+  <si>
+    <t>&lt;---- Input these values from the R file</t>
+  </si>
+  <si>
+    <t>Elasticities:</t>
+  </si>
+  <si>
+    <t>Values from computation:</t>
+  </si>
+  <si>
+    <t>&lt;---- Compare w/computed values (should be similar if optimization was correct)</t>
+  </si>
+  <si>
+    <t>Low market share, higher price effects, no store or brand effects</t>
+  </si>
+  <si>
+    <t>,0157</t>
+  </si>
+  <si>
+    <t>q_2A</t>
+  </si>
+  <si>
+    <t>q_2B</t>
+  </si>
+  <si>
+    <t>dq_2A/dp_2A</t>
+  </si>
+  <si>
+    <t>dq_2B/dp_2A = dq_2A/dp_2B</t>
+  </si>
+  <si>
+    <t>dq_2B/dp_2B</t>
   </si>
 </sst>
 </file>
@@ -191,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +281,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -469,6 +563,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8CB1CC-B042-454C-894C-963C8AC41678}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,39 +934,39 @@
   <sheetData>
     <row r="1" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
-      <c r="D1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="41" t="s">
+      <c r="D1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="41" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
       <c r="X1" s="16"/>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
     </row>
     <row r="2" spans="1:28" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -1246,7 +1344,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="J6" s="14">
-        <v>2.27</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K6" s="14">
         <v>2.17</v>
@@ -1273,7 +1371,7 @@
       </c>
       <c r="R6" s="14">
         <f t="shared" si="7"/>
-        <v>1.06</v>
+        <v>1.0699999999999998</v>
       </c>
       <c r="S6" s="15">
         <f t="shared" si="8"/>
@@ -1877,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="14">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="N14" s="14">
         <v>1.05</v>
@@ -1891,7 +1989,7 @@
       </c>
       <c r="Q14" s="14">
         <f>I14-M14</f>
-        <v>1.0499999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="R14" s="14">
         <f>J14-N14</f>
@@ -1905,17 +2003,17 @@
         <v>5.8900000000000003E-3</v>
       </c>
       <c r="U14" s="14">
-        <v>3.8300000000000001E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="V14" s="14">
-        <v>2.0799999999999998E-3</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="W14" s="14">
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="X14" s="17">
         <f>SUM(T14:W14)</f>
-        <v>8.4669999999999995E-2</v>
+        <v>8.4559999999999996E-2</v>
       </c>
       <c r="Y14" s="14">
         <v>2.1700000000000001E-3</v>
@@ -3696,10 +3794,10 @@
         <v>1.98</v>
       </c>
       <c r="AA36" s="14">
-        <v>0.39200000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="AB36" s="14">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="37" spans="2:28" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3790,23 +3888,186 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="X38" s="17"/>
-    </row>
-    <row r="39" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="G39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="X39" s="17"/>
-    </row>
-    <row r="40" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="G40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="X40" s="17"/>
+    <row r="38" spans="2:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="X38" s="22"/>
+    </row>
+    <row r="39" spans="2:28" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="14">
+        <v>4</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I39" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0.222</v>
+      </c>
+      <c r="M39" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="O39" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P39" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Q39" s="14">
+        <f t="shared" ref="Q39" si="65">I39-M39</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="R39" s="14">
+        <f t="shared" ref="R39" si="66">J39-N39</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S39" s="15">
+        <f t="shared" ref="S39" si="67">K39-O39</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="T39" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="U39" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="V39" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="W39" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="X39" s="17">
+        <f>SUM(T39:W39)</f>
+        <v>0.1416</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="14">
+        <v>4</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P40" s="14">
+        <f t="shared" ref="P39:S40" si="68">H40-L40</f>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="Q40" s="14">
+        <f t="shared" si="68"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="R40" s="14">
+        <f t="shared" si="68"/>
+        <v>0.26699999999999996</v>
+      </c>
+      <c r="S40" s="15">
+        <f t="shared" si="68"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="T40" s="14">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="U40" s="14">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="W40" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="X40" s="17">
+        <f>SUM(T40:W40)</f>
+        <v>0.46640000000000004</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>9.2200000000000008E-3</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>1.72E-2</v>
+      </c>
     </row>
     <row r="41" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
@@ -4121,39 +4382,39 @@
   <sheetData>
     <row r="1" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45" t="s">
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="45" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
       <c r="V1" s="24"/>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -4265,7 +4526,7 @@
       </c>
       <c r="H3" s="30">
         <f>All!J6-All!J3</f>
-        <v>8.0000000000000071E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="I3" s="30">
         <f>All!K6-All!K3</f>
@@ -4297,7 +4558,7 @@
       </c>
       <c r="P3" s="33">
         <f t="shared" si="0"/>
-        <v>-1.9999999999999796E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Q3" s="34">
         <f t="shared" si="0"/>
@@ -4599,7 +4860,7 @@
       </c>
       <c r="K7" s="30">
         <f>All!M14-All!M10</f>
-        <v>-9.9999999999997868E-3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="30">
         <f>All!N14-All!N10</f>
@@ -4615,7 +4876,7 @@
       </c>
       <c r="O7" s="30">
         <f t="shared" ref="O7" si="6">G7-K7</f>
-        <v>9.9999999999997868E-3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="30">
         <f t="shared" ref="P7" si="7">H7-L7</f>
@@ -4631,11 +4892,11 @@
       </c>
       <c r="S7" s="30">
         <f>All!U14-All!U10</f>
-        <v>-1.9999999999999879E-4</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="T7" s="30">
         <f>All!V14-All!V10</f>
-        <v>-9.0000000000000236E-5</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="U7" s="31">
         <f>All!W14-All!W10</f>
@@ -4643,7 +4904,7 @@
       </c>
       <c r="V7" s="31">
         <f t="shared" si="5"/>
-        <v>3.3299999999999983E-3</v>
+        <v>3.2199999999999954E-3</v>
       </c>
       <c r="W7" s="30">
         <f>All!Y14-All!Y10</f>
@@ -5824,11 +6085,11 @@
       </c>
       <c r="Y20" s="30">
         <f>All!AA36-All!AA31</f>
-        <v>9.8000000000000032E-2</v>
+        <v>9.7000000000000031E-2</v>
       </c>
       <c r="Z20" s="30">
         <f>All!AB36-All!AB31</f>
-        <v>-0.21999999999999997</v>
+        <v>-0.20999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -5944,9 +6205,6 @@
     <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:M21">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5956,6 +6214,9 @@
         <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:Q21">
@@ -6006,4 +6267,467 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3912F778-FDDF-4685-8D38-AA1A357085F1}">
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="14" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.437</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.437</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.437</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.437</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.222</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.222</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.222</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.222</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:S3" si="0">H3-L3</f>
+        <v>0.215</v>
+      </c>
+      <c r="Q3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.215</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" si="0"/>
+        <v>0.215</v>
+      </c>
+      <c r="S3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.215</v>
+      </c>
+      <c r="T3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="U3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="V3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="W3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="X3" s="17">
+        <f>SUM(T3:W3)</f>
+        <v>0.1416</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11">
+        <f>J12+J13+J14+J15</f>
+        <v>0.16551298320388153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f>H3</f>
+        <v>0.437</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <f>J3</f>
+        <v>0.437</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <f>EXP(D3 - H3*E3)</f>
+        <v>4.1378245800970381E-2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12">
+        <f>J12/(1 + $M$11)</f>
+        <v>3.5502174919772769E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f>L3</f>
+        <v>0.222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <f>N3</f>
+        <v>0.222</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13">
+        <f>EXP(D3 - E3*I3 + G3)</f>
+        <v>4.1378245800970381E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="1">J13/(1 + $M$11)</f>
+        <v>3.5502174919772769E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <f>T3</f>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <f>V3</f>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14">
+        <f>EXP(D3 - E3*J3 + F3)</f>
+        <v>4.1378245800970381E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>3.5502174919772769E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <f>I3</f>
+        <v>0.437</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f>K3</f>
+        <v>0.437</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15">
+        <f>EXP(D3 - E3*K3 + F3 + G3)</f>
+        <v>4.1378245800970381E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3.5502174919772769E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f>M3</f>
+        <v>0.222</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f>O3</f>
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <f>U3</f>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <f>W3</f>
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="41">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="41">
+        <v>6.2700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="42">
+        <v>-0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="42">
+        <v>-0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="42">
+        <v>6.2700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="42">
+        <v>-0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <f>(D13*D20 - (D15 - D16)*D21 - D14)/D20</f>
+        <v>0.43690087719298243</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <f>(D16*D22 - (D12-D13)*D21 - D17)/D22</f>
+        <v>0.43690087719298243</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <f>(G13*D24 - (G15 - G16)*D25 - G14)/D24</f>
+        <v>0.43690087719298243</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <f>(G16*D26 - (G12-G13)*D25 - G17)/D26</f>
+        <v>0.43690087719298243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539085EA-92D9-417B-A018-F2E1BFCE25EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64911B5E-552E-4927-97EA-25D195A46A41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="5208" windowWidth="10932" windowHeight="9300" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
+    <workbookView xWindow="-8310" yWindow="2595" windowWidth="17085" windowHeight="14535" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="105">
   <si>
     <t>Description</t>
   </si>
@@ -314,9 +314,6 @@
     <t>log(2000)</t>
   </si>
   <si>
-    <t>log(3000)</t>
-  </si>
-  <si>
     <t>Medium high market share, 1 dominant store, no brand effects</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   <si>
     <t>High market share, A dominant brand, 2 dominant store, equal effect</t>
   </si>
+  <si>
+    <t>Very high market share, A dominant brand, 1 dominant store</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -702,6 +708,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,27 +745,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1134,12 +1138,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8CB1CC-B042-454C-894C-963C8AC41678}">
-  <dimension ref="A1:AD117"/>
+  <dimension ref="A1:AD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="U63" sqref="U63"/>
+      <selection pane="bottomLeft" activeCell="AD100" sqref="AD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,43 +1164,43 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
-      <c r="D1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="D1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="43" t="s">
         <v>76</v>
       </c>
       <c r="I1" s="43"/>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="57" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
       <c r="Z1" s="16"/>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
     </row>
     <row r="2" spans="1:30" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -3951,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="14">
         <v>-1</v>
@@ -4045,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>85</v>
@@ -4233,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="14">
         <v>-1</v>
@@ -4327,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>85</v>
@@ -5467,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="14">
         <v>-1</v>
@@ -5561,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>32</v>
@@ -5655,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>30</v>
@@ -5749,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="14">
         <v>-1</v>
@@ -5843,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>32</v>
@@ -5937,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>30</v>
@@ -6037,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="14">
         <v>-1</v>
@@ -6131,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>32</v>
@@ -6225,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>30</v>
@@ -6319,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="14">
         <v>-1</v>
@@ -6413,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>32</v>
@@ -6507,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>30</v>
@@ -6607,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="14">
         <v>-1</v>
@@ -6701,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>85</v>
@@ -6795,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>86</v>
@@ -6889,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" s="14">
         <v>-1</v>
@@ -6983,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>85</v>
@@ -7077,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>86</v>
@@ -7166,11 +7170,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="20"/>
-      <c r="G73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="Z73" s="22"/>
+    <row r="73" spans="2:30" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="Z73" s="61"/>
     </row>
     <row r="74" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
@@ -8332,7 +8336,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="Z89" s="17">
-        <f>SUM(V89:Y89)</f>
+        <f t="shared" ref="Z89:Z96" si="107">SUM(V89:Y89)</f>
         <v>0.34179999999999999</v>
       </c>
       <c r="AA89" s="14">
@@ -8359,7 +8363,7 @@
         <v>92</v>
       </c>
       <c r="E90" s="14">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F90" s="14">
         <v>-4</v>
@@ -8426,7 +8430,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="Z90" s="17">
-        <f>SUM(V90:Y90)</f>
+        <f t="shared" si="107"/>
         <v>0.80530000000000002</v>
       </c>
       <c r="AA90" s="14">
@@ -8442,397 +8446,749 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="14">
-        <v>0</v>
-      </c>
-      <c r="C91" s="13" t="s">
+    <row r="91" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B91" s="58">
+        <v>0</v>
+      </c>
+      <c r="C91" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="58">
+        <v>10</v>
+      </c>
+      <c r="E91" s="58">
+        <v>3</v>
+      </c>
+      <c r="F91" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G91" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H91" s="58">
+        <v>0</v>
+      </c>
+      <c r="I91" s="58">
+        <v>0</v>
+      </c>
+      <c r="J91" s="58">
+        <v>2.27</v>
+      </c>
+      <c r="K91" s="58">
+        <v>1.58</v>
+      </c>
+      <c r="L91" s="58">
+        <v>1.57</v>
+      </c>
+      <c r="M91" s="58">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N91" s="58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O91" s="58">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="P91" s="58">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q91" s="58">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="R91" s="58">
+        <f>J91-N91-$H91</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S91" s="58">
+        <f>K91-O91-$H91</f>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="T91" s="58">
+        <f>L91-P91-$I91</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="U91" s="60">
+        <f>M91-Q91-$I91</f>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="V91" s="58">
+        <v>0.504</v>
+      </c>
+      <c r="W91" s="58">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X91" s="58">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y91" s="58">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="Z91" s="61">
+        <f t="shared" si="107"/>
+        <v>0.9796999999999999</v>
+      </c>
+      <c r="AA91" s="58">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AB91" s="58">
+        <v>0.125</v>
+      </c>
+      <c r="AC91" s="58">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AD91" s="58">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B92" s="58">
+        <v>0</v>
+      </c>
+      <c r="C92" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="58">
+        <v>11</v>
+      </c>
+      <c r="E92" s="58">
+        <v>4</v>
+      </c>
+      <c r="F92" s="58">
+        <v>-4</v>
+      </c>
+      <c r="G92" s="60">
+        <v>-4</v>
+      </c>
+      <c r="H92" s="58">
+        <v>0</v>
+      </c>
+      <c r="I92" s="58">
+        <v>0</v>
+      </c>
+      <c r="J92" s="58">
+        <v>2</v>
+      </c>
+      <c r="K92" s="58">
+        <v>1.3</v>
+      </c>
+      <c r="L92" s="58">
+        <v>1.28</v>
+      </c>
+      <c r="M92" s="58">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="N92" s="58">
+        <v>1.03</v>
+      </c>
+      <c r="O92" s="58">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P92" s="58">
+        <v>0.96</v>
+      </c>
+      <c r="Q92" s="58">
+        <v>0.31</v>
+      </c>
+      <c r="R92" s="58">
+        <f>J92-N92-$H92</f>
+        <v>0.97</v>
+      </c>
+      <c r="S92" s="58">
+        <f>K92-O92-$H92</f>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="T92" s="58">
+        <f>L92-P92-$I92</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="U92" s="60">
+        <f>M92-Q92-$I92</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="V92" s="58">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="W92" s="58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X92" s="58">
+        <v>0.183</v>
+      </c>
+      <c r="Y92" s="58">
+        <v>4.53E-2</v>
+      </c>
+      <c r="Z92" s="61">
+        <f t="shared" si="107"/>
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="AA92" s="58">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AB92" s="58">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="AC92" s="58">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AD92" s="58">
+        <v>7.4099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="14">
+        <v>1</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="14">
+        <v>2</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G93" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M93" s="14">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
+        <v>0.182</v>
+      </c>
+      <c r="P93" s="14">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="Q93" s="14">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R93" s="14">
+        <f t="shared" ref="R93:R94" si="108">J93-N93-$H93</f>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S93" s="14">
+        <f t="shared" ref="S93:S94" si="109">K93-O93-$H93</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="T93" s="14">
+        <f t="shared" ref="T93:T94" si="110">L93-P93-$I93</f>
+        <v>0.18100000000000005</v>
+      </c>
+      <c r="U93" s="15">
+        <f t="shared" ref="U93:U94" si="111">M93-Q93-$I93</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="V93" s="14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="W93" s="14">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="X93" s="14">
+        <v>2.2120000000000001E-2</v>
+      </c>
+      <c r="Y93" s="14">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="Z93" s="17">
+        <f t="shared" si="107"/>
+        <v>0.52904999999999991</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>7.7099999999999998E-3</v>
+      </c>
+      <c r="AB93" s="14">
+        <v>5.62E-3</v>
+      </c>
+      <c r="AC93" s="14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AD93" s="14">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="14">
+        <v>1</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="14">
-        <v>6</v>
-      </c>
-      <c r="F91" s="14">
-        <v>-2</v>
-      </c>
-      <c r="G91" s="15">
+      <c r="D94" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="14">
+        <v>4</v>
+      </c>
+      <c r="F94" s="14">
         <v>-4</v>
       </c>
-      <c r="H91" s="14">
-        <v>0</v>
-      </c>
-      <c r="I91" s="14">
-        <v>0</v>
-      </c>
-      <c r="J91" s="14">
-        <v>1.07</v>
-      </c>
-      <c r="K91" s="14">
-        <v>0.621</v>
-      </c>
-      <c r="L91" s="14">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="M91" s="14">
-        <v>0.438</v>
-      </c>
-      <c r="N91" s="14">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="O91" s="14">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="P91" s="14">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="Q91" s="14">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="R91" s="14">
-        <f t="shared" ref="R91" si="107">J91-N91-$H91</f>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="S91" s="14">
-        <f t="shared" ref="S91" si="108">K91-O91-$H91</f>
-        <v>0.41300000000000003</v>
-      </c>
-      <c r="T91" s="14">
-        <f t="shared" ref="T91" si="109">L91-P91-$I91</f>
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="U91" s="15">
-        <f t="shared" ref="U91" si="110">M91-Q91-$I91</f>
-        <v>0.24</v>
-      </c>
-      <c r="V91" s="14">
-        <v>0.47</v>
-      </c>
-      <c r="W91" s="14">
-        <v>0.127</v>
-      </c>
-      <c r="X91" s="14">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="Y91" s="14">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="Z91" s="17">
-        <f>SUM(V91:Y91)</f>
-        <v>0.90429999999999999</v>
-      </c>
-      <c r="AA91" s="14">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="AB91" s="14">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="AC91" s="14">
-        <v>0.247</v>
-      </c>
-      <c r="AD91" s="14">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B92" s="14">
-        <v>1</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" s="14">
-        <v>2</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" s="14">
-        <v>-2</v>
-      </c>
-      <c r="G92" s="15">
-        <v>-2</v>
-      </c>
-      <c r="H92" s="14">
-        <v>0</v>
-      </c>
-      <c r="I92" s="14">
-        <v>0</v>
-      </c>
-      <c r="J92" s="14">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="K92" s="14">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="L92" s="14">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="M92" s="14">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="N92" s="14">
-        <v>0</v>
-      </c>
-      <c r="O92" s="14">
-        <v>0.182</v>
-      </c>
-      <c r="P92" s="14">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="Q92" s="14">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="R92" s="14">
-        <f t="shared" ref="R92:R93" si="111">J92-N92-$H92</f>
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="S92" s="14">
-        <f t="shared" ref="S92:S93" si="112">K92-O92-$H92</f>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="T92" s="14">
-        <f t="shared" ref="T92:T93" si="113">L92-P92-$I92</f>
-        <v>0.18100000000000005</v>
-      </c>
-      <c r="U92" s="15">
-        <f t="shared" ref="U92:U93" si="114">M92-Q92-$I92</f>
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="V92" s="14">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="W92" s="14">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="X92" s="14">
-        <v>2.2120000000000001E-2</v>
-      </c>
-      <c r="Y92" s="14">
-        <v>8.1300000000000001E-3</v>
-      </c>
-      <c r="Z92" s="17">
-        <f>SUM(V92:Y92)</f>
-        <v>0.52904999999999991</v>
-      </c>
-      <c r="AA92" s="14">
-        <v>7.7099999999999998E-3</v>
-      </c>
-      <c r="AB92" s="14">
-        <v>5.62E-3</v>
-      </c>
-      <c r="AC92" s="14">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="AD92" s="14">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="14">
-        <v>1</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="14">
+      <c r="G94" s="15">
         <v>-4</v>
       </c>
-      <c r="F93" s="14">
+      <c r="H94" s="14">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <v>1.48</v>
+      </c>
+      <c r="K94" s="14">
+        <v>1.73</v>
+      </c>
+      <c r="L94" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="M94" s="14">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N94" s="14">
+        <v>0</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0.251</v>
+      </c>
+      <c r="P94" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="Q94" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="R94" s="14">
+        <f t="shared" si="108"/>
+        <v>1.48</v>
+      </c>
+      <c r="S94" s="14">
+        <f t="shared" si="109"/>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="T94" s="14">
+        <f t="shared" si="110"/>
+        <v>0.25</v>
+      </c>
+      <c r="U94" s="15">
+        <f t="shared" si="111"/>
+        <v>0.255</v>
+      </c>
+      <c r="V94" s="14">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="W94" s="14">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="X94" s="14">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="Y94" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Z94" s="17">
+        <f t="shared" si="107"/>
+        <v>0.84802999999999995</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="AB94" s="14">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="AC94" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="AD94" s="14">
+        <v>4.4400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95" s="58">
+        <v>1</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="58">
+        <v>10</v>
+      </c>
+      <c r="E95" s="58">
+        <v>3</v>
+      </c>
+      <c r="F95" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G95" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H95" s="58">
+        <v>0</v>
+      </c>
+      <c r="I95" s="58">
+        <v>0</v>
+      </c>
+      <c r="J95" s="58">
+        <v>2.35</v>
+      </c>
+      <c r="K95" s="58">
+        <v>2.7</v>
+      </c>
+      <c r="L95" s="58">
+        <v>2.79</v>
+      </c>
+      <c r="M95" s="58">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N95" s="58">
+        <v>0</v>
+      </c>
+      <c r="O95" s="58">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="P95" s="58">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q95" s="58">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="R95" s="58">
+        <f>J95-N95-$H95</f>
+        <v>2.35</v>
+      </c>
+      <c r="S95" s="58">
+        <f>K95-O95-$H95</f>
+        <v>2.3520000000000003</v>
+      </c>
+      <c r="T95" s="58">
+        <f>L95-P95-$I95</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="U95" s="60">
+        <f>M95-Q95-$I95</f>
+        <v>0.3670000000000001</v>
+      </c>
+      <c r="V95" s="58">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="W95" s="58">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="X95" s="58">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y95" s="58">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="Z95" s="61">
+        <f t="shared" si="107"/>
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="AA95" s="58">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AB95" s="58">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="AC95" s="58">
+        <v>2.02</v>
+      </c>
+      <c r="AD95" s="58">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="58">
+        <v>1</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="58">
+        <v>11</v>
+      </c>
+      <c r="E96" s="58">
+        <v>4</v>
+      </c>
+      <c r="F96" s="58">
         <v>-4</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G96" s="60">
         <v>-4</v>
       </c>
-      <c r="H93" s="14">
-        <v>0</v>
-      </c>
-      <c r="I93" s="14">
-        <v>0</v>
-      </c>
-      <c r="J93" s="14">
-        <v>1.48</v>
-      </c>
-      <c r="K93" s="14">
-        <v>1.73</v>
-      </c>
-      <c r="L93" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="M93" s="14">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="N93" s="14">
-        <v>0</v>
-      </c>
-      <c r="O93" s="14">
-        <v>0.251</v>
-      </c>
-      <c r="P93" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="Q93" s="14">
+      <c r="H96" s="58">
+        <v>0</v>
+      </c>
+      <c r="I96" s="58">
+        <v>0</v>
+      </c>
+      <c r="J96" s="58">
+        <v>2.06</v>
+      </c>
+      <c r="K96" s="58">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L96" s="58">
+        <v>2.34</v>
+      </c>
+      <c r="M96" s="58">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N96" s="58">
+        <v>0</v>
+      </c>
+      <c r="O96" s="58">
+        <v>0.254</v>
+      </c>
+      <c r="P96" s="58">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q96" s="58">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="R96" s="58">
+        <f>J96-N96-$H96</f>
+        <v>2.06</v>
+      </c>
+      <c r="S96" s="58">
+        <f>K96-O96-$H96</f>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="T96" s="58">
+        <f>L96-P96-$I96</f>
         <v>0.27</v>
       </c>
-      <c r="R93" s="14">
-        <f t="shared" si="111"/>
-        <v>1.48</v>
-      </c>
-      <c r="S93" s="14">
-        <f t="shared" si="112"/>
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="T93" s="14">
-        <f t="shared" si="113"/>
-        <v>0.25</v>
-      </c>
-      <c r="U93" s="15">
-        <f t="shared" si="114"/>
-        <v>0.255</v>
-      </c>
-      <c r="V93" s="14">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="W93" s="14">
-        <v>5.5500000000000002E-3</v>
-      </c>
-      <c r="X93" s="14">
-        <v>4.9800000000000001E-3</v>
-      </c>
-      <c r="Y93" s="14">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="Z93" s="17">
-        <f>SUM(V93:Y93)</f>
-        <v>0.84802999999999995</v>
-      </c>
-      <c r="AA93" s="14">
-        <v>7.4700000000000001E-3</v>
-      </c>
-      <c r="AB93" s="14">
-        <v>4.7600000000000003E-3</v>
-      </c>
-      <c r="AC93" s="14">
-        <v>1.23</v>
-      </c>
-      <c r="AD93" s="14">
-        <v>4.4400000000000004E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="13"/>
-      <c r="G94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="Z94" s="17"/>
-    </row>
-    <row r="95" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="13"/>
-      <c r="G95" s="15"/>
-      <c r="U95" s="15"/>
-      <c r="Z95" s="17"/>
-    </row>
-    <row r="96" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="13"/>
-      <c r="G96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="Z96" s="17"/>
-    </row>
-    <row r="97" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U96" s="60">
+        <f>M96-Q96-$I96</f>
+        <v>0.26699999999999996</v>
+      </c>
+      <c r="V96" s="58">
+        <v>0.873</v>
+      </c>
+      <c r="W96" s="58">
+        <v>5.79E-3</v>
+      </c>
+      <c r="X96" s="58">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="Y96" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="Z96" s="61">
+        <f t="shared" si="107"/>
+        <v>0.94413999999999998</v>
+      </c>
+      <c r="AA96" s="58">
+        <v>1.11E-2</v>
+      </c>
+      <c r="AB96" s="58">
+        <v>2.93E-2</v>
+      </c>
+      <c r="AC96" s="58">
+        <v>1.81</v>
+      </c>
+      <c r="AD96" s="58">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C97" s="13"/>
       <c r="G97" s="15"/>
       <c r="U97" s="15"/>
       <c r="Z97" s="17"/>
     </row>
-    <row r="98" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C98" s="13"/>
       <c r="G98" s="15"/>
       <c r="U98" s="15"/>
       <c r="Z98" s="17"/>
     </row>
-    <row r="99" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="13"/>
-      <c r="G99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="Z99" s="17"/>
-    </row>
-    <row r="100" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="58">
+        <v>1</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="58">
+        <v>10</v>
+      </c>
+      <c r="E99" s="58">
+        <v>3</v>
+      </c>
+      <c r="F99" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G99" s="60">
+        <v>0</v>
+      </c>
+      <c r="H99" s="58">
+        <v>0</v>
+      </c>
+      <c r="I99" s="58">
+        <v>0</v>
+      </c>
+      <c r="J99" s="58">
+        <v>2.11</v>
+      </c>
+      <c r="K99" s="58">
+        <v>2.56</v>
+      </c>
+      <c r="L99" s="58">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M99" s="58">
+        <v>1.66</v>
+      </c>
+      <c r="N99" s="58">
+        <v>0</v>
+      </c>
+      <c r="O99" s="58">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P99" s="58">
+        <v>2.14</v>
+      </c>
+      <c r="Q99" s="58">
+        <v>1.27</v>
+      </c>
+      <c r="R99" s="58">
+        <f>J99-N99-$H99</f>
+        <v>2.11</v>
+      </c>
+      <c r="S99" s="58">
+        <f>K99-O99-$H99</f>
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="T99" s="58">
+        <f>L99-P99-$I99</f>
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="U99" s="60">
+        <f>M99-Q99-$I99</f>
+        <v>0.3899999999999999</v>
+      </c>
+      <c r="V99" s="58">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="W99" s="58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X99" s="58">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="Y99" s="58">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Z99" s="61">
+        <f t="shared" ref="Z99" si="112">SUM(V99:Y99)</f>
+        <v>0.98365000000000002</v>
+      </c>
+      <c r="AA99" s="58">
+        <v>2.06E-2</v>
+      </c>
+      <c r="AB99" s="58">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AC99" s="58">
+        <v>1.78</v>
+      </c>
+      <c r="AD99" s="58">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C100" s="13"/>
       <c r="G100" s="15"/>
       <c r="U100" s="15"/>
       <c r="Z100" s="17"/>
     </row>
-    <row r="101" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C101" s="13"/>
       <c r="G101" s="15"/>
       <c r="U101" s="15"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C102" s="13"/>
       <c r="G102" s="15"/>
       <c r="U102" s="15"/>
       <c r="Z102" s="17"/>
     </row>
-    <row r="103" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C103" s="13"/>
       <c r="G103" s="15"/>
       <c r="U103" s="15"/>
       <c r="Z103" s="17"/>
     </row>
-    <row r="104" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C104" s="13"/>
       <c r="G104" s="15"/>
       <c r="U104" s="15"/>
       <c r="Z104" s="17"/>
     </row>
-    <row r="105" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C105" s="13"/>
       <c r="G105" s="15"/>
       <c r="U105" s="15"/>
       <c r="Z105" s="17"/>
     </row>
-    <row r="106" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C106" s="13"/>
       <c r="G106" s="15"/>
       <c r="U106" s="15"/>
       <c r="Z106" s="17"/>
     </row>
-    <row r="107" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C107" s="13"/>
       <c r="G107" s="15"/>
       <c r="U107" s="15"/>
       <c r="Z107" s="17"/>
     </row>
-    <row r="108" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C108" s="13"/>
       <c r="G108" s="15"/>
       <c r="U108" s="15"/>
       <c r="Z108" s="17"/>
     </row>
-    <row r="109" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="13"/>
       <c r="G109" s="15"/>
       <c r="U109" s="15"/>
       <c r="Z109" s="17"/>
     </row>
-    <row r="110" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C110" s="13"/>
       <c r="G110" s="15"/>
       <c r="U110" s="15"/>
       <c r="Z110" s="17"/>
     </row>
-    <row r="111" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C111" s="13"/>
       <c r="G111" s="15"/>
       <c r="U111" s="15"/>
       <c r="Z111" s="17"/>
     </row>
-    <row r="112" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C112" s="13"/>
       <c r="G112" s="15"/>
       <c r="U112" s="15"/>
@@ -8856,17 +9212,29 @@
       <c r="U115" s="15"/>
       <c r="Z115" s="17"/>
     </row>
-    <row r="116" spans="3:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="10"/>
-      <c r="G116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="Z116" s="18"/>
-    </row>
-    <row r="117" spans="3:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="10"/>
-      <c r="G117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="Z117" s="18"/>
+    <row r="116" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="13"/>
+      <c r="G116" s="15"/>
+      <c r="U116" s="15"/>
+      <c r="Z116" s="17"/>
+    </row>
+    <row r="117" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="13"/>
+      <c r="G117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="Z117" s="17"/>
+    </row>
+    <row r="118" spans="3:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="10"/>
+      <c r="G118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="Z118" s="18"/>
+    </row>
+    <row r="119" spans="3:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="10"/>
+      <c r="G119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="Z119" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8883,8 +9251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F9F313-BE4A-4F11-A03B-A50BC72B85F3}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8905,39 +9273,39 @@
   <sheetData>
     <row r="1" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="61" t="s">
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="61" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
       <c r="V1" s="24"/>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
     </row>
     <row r="2" spans="1:26" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -9012,10 +9380,10 @@
       <c r="X2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="65">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="65">
+      <c r="Y2" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="57">
         <v>2</v>
       </c>
     </row>
@@ -10563,7 +10931,7 @@
     </row>
     <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="30">
         <f>All!D35</f>
@@ -10668,7 +11036,7 @@
     </row>
     <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="30" t="str">
         <f>All!D36</f>
@@ -11418,7 +11786,7 @@
     </row>
     <row r="31" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="14">
         <v>-1</v>
@@ -11519,7 +11887,7 @@
     </row>
     <row r="32" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>32</v>
@@ -11620,7 +11988,7 @@
     </row>
     <row r="33" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>30</v>
@@ -11728,7 +12096,7 @@
     </row>
     <row r="35" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="14">
         <v>-1</v>
@@ -11829,7 +12197,7 @@
     </row>
     <row r="36" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>32</v>
@@ -11930,7 +12298,7 @@
     </row>
     <row r="37" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>30</v>
@@ -12038,7 +12406,7 @@
     </row>
     <row r="39" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="14">
         <v>-1</v>
@@ -12139,7 +12507,7 @@
     </row>
     <row r="40" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>85</v>
@@ -12240,7 +12608,7 @@
     </row>
     <row r="41" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>86</v>
@@ -12367,7 +12735,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="94" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12382,7 +12750,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="102" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12433,7 +12801,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="88" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12448,7 +12816,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="86" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12463,7 +12831,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="83" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12560,7 +12928,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="72" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12775,7 +13143,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12874,7 +13242,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="44" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13029,7 +13397,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13092,7 +13460,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64911B5E-552E-4927-97EA-25D195A46A41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A0F71-E53E-44AB-ADBB-51BD36B03E2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8310" yWindow="2595" windowWidth="17085" windowHeight="14535" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17085" windowHeight="14535" activeTab="1" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Differences" sheetId="2" r:id="rId2"/>
-    <sheet name="FOC Check" sheetId="3" r:id="rId3"/>
+    <sheet name="All data (take 2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Differences" sheetId="2" r:id="rId3"/>
+    <sheet name="FOC Check" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="108">
   <si>
     <t>Description</t>
   </si>
@@ -348,6 +349,15 @@
   </si>
   <si>
     <t>Very high market share, A dominant brand, 1 dominant store</t>
+  </si>
+  <si>
+    <t>Very high market share, no brand effects, 1 dominant store</t>
+  </si>
+  <si>
+    <t>Very high market share, A dominant brand, no store effects</t>
+  </si>
+  <si>
+    <t>Very high market share, B dominant brand, 1 dominant store</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1150,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8CB1CC-B042-454C-894C-963C8AC41678}">
   <dimension ref="A1:AD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="AD100" sqref="AD100"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9016,18 +9026,106 @@
       <c r="U97" s="15"/>
       <c r="Z97" s="17"/>
     </row>
-    <row r="98" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="13"/>
-      <c r="G98" s="15"/>
-      <c r="U98" s="15"/>
-      <c r="Z98" s="17"/>
-    </row>
-    <row r="99" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="58">
+        <v>0</v>
+      </c>
+      <c r="C98" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="58">
+        <v>10</v>
+      </c>
+      <c r="E98" s="58">
+        <v>3</v>
+      </c>
+      <c r="F98" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G98" s="60">
+        <v>0</v>
+      </c>
+      <c r="H98" s="58">
+        <v>0</v>
+      </c>
+      <c r="I98" s="58">
+        <v>0</v>
+      </c>
+      <c r="J98" s="58">
+        <v>1.82</v>
+      </c>
+      <c r="K98" s="58">
+        <v>1.82</v>
+      </c>
+      <c r="L98" s="58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M98" s="58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N98" s="58">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O98" s="58">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P98" s="58">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Q98" s="58">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="R98" s="58">
+        <f t="shared" ref="R98:S105" si="112">J98-N98-$H98</f>
+        <v>1.155</v>
+      </c>
+      <c r="S98" s="58">
+        <f t="shared" si="112"/>
+        <v>1.155</v>
+      </c>
+      <c r="T98" s="58">
+        <f t="shared" ref="T98:U105" si="113">L98-P98-$I98</f>
+        <v>0.46899999999999986</v>
+      </c>
+      <c r="U98" s="60">
+        <f t="shared" si="113"/>
+        <v>0.46899999999999986</v>
+      </c>
+      <c r="V98" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W98" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="X98" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Y98" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z98" s="61">
+        <f t="shared" ref="Z98" si="114">SUM(V98:Y98)</f>
+        <v>0.996</v>
+      </c>
+      <c r="AA98" s="58">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AB98" s="58">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AC98" s="58">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AD98" s="58">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="58">
         <v>1</v>
       </c>
       <c r="C99" s="59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99" s="58">
         <v>10</v>
@@ -9072,19 +9170,19 @@
         <v>1.27</v>
       </c>
       <c r="R99" s="58">
-        <f>J99-N99-$H99</f>
+        <f t="shared" si="112"/>
         <v>2.11</v>
       </c>
       <c r="S99" s="58">
-        <f>K99-O99-$H99</f>
+        <f t="shared" si="112"/>
         <v>2.1110000000000002</v>
       </c>
       <c r="T99" s="58">
-        <f>L99-P99-$I99</f>
+        <f t="shared" si="113"/>
         <v>0.38999999999999968</v>
       </c>
       <c r="U99" s="60">
-        <f>M99-Q99-$I99</f>
+        <f t="shared" si="113"/>
         <v>0.3899999999999999</v>
       </c>
       <c r="V99" s="58">
@@ -9100,7 +9198,7 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="Z99" s="61">
-        <f t="shared" ref="Z99" si="112">SUM(V99:Y99)</f>
+        <f>SUM(V99:Y99)</f>
         <v>0.98365000000000002</v>
       </c>
       <c r="AA99" s="58">
@@ -9116,53 +9214,757 @@
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="13"/>
-      <c r="G100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="Z100" s="17"/>
-    </row>
-    <row r="101" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="13"/>
-      <c r="G101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="Z101" s="17"/>
-    </row>
-    <row r="102" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="13"/>
-      <c r="G102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="Z102" s="17"/>
-    </row>
-    <row r="103" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="13"/>
-      <c r="G103" s="15"/>
-      <c r="U103" s="15"/>
-      <c r="Z103" s="17"/>
-    </row>
-    <row r="104" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="13"/>
-      <c r="G104" s="15"/>
-      <c r="U104" s="15"/>
-      <c r="Z104" s="17"/>
-    </row>
-    <row r="105" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="13"/>
-      <c r="G105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="Z105" s="17"/>
-    </row>
-    <row r="106" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="13"/>
-      <c r="G106" s="15"/>
-      <c r="U106" s="15"/>
-      <c r="Z106" s="17"/>
-    </row>
-    <row r="107" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="13"/>
-      <c r="G107" s="15"/>
-      <c r="U107" s="15"/>
-      <c r="Z107" s="17"/>
+    <row r="100" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="58">
+        <v>0</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="58">
+        <v>10</v>
+      </c>
+      <c r="E100" s="58">
+        <v>1</v>
+      </c>
+      <c r="F100" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G100" s="60">
+        <v>0</v>
+      </c>
+      <c r="H100" s="58">
+        <v>0</v>
+      </c>
+      <c r="I100" s="58">
+        <v>0</v>
+      </c>
+      <c r="J100" s="58">
+        <v>5.46</v>
+      </c>
+      <c r="K100" s="58">
+        <v>5.46</v>
+      </c>
+      <c r="L100" s="58">
+        <v>3.38</v>
+      </c>
+      <c r="M100" s="58">
+        <v>3.38</v>
+      </c>
+      <c r="N100" s="58">
+        <v>2</v>
+      </c>
+      <c r="O100" s="58">
+        <v>2</v>
+      </c>
+      <c r="P100" s="58">
+        <v>1.98</v>
+      </c>
+      <c r="Q100" s="58">
+        <v>1.98</v>
+      </c>
+      <c r="R100" s="58">
+        <f t="shared" si="112"/>
+        <v>3.46</v>
+      </c>
+      <c r="S100" s="58">
+        <f t="shared" si="112"/>
+        <v>3.46</v>
+      </c>
+      <c r="T100" s="58">
+        <f t="shared" si="113"/>
+        <v>1.4</v>
+      </c>
+      <c r="U100" s="60">
+        <f t="shared" si="113"/>
+        <v>1.4</v>
+      </c>
+      <c r="V100" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W100" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="X100" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Y100" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z100" s="61">
+        <f>SUM(V100:Y100)</f>
+        <v>0.996</v>
+      </c>
+      <c r="AA100" s="58">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB100" s="58">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AC100" s="58">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD100" s="58">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="58">
+        <v>1</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="58">
+        <v>10</v>
+      </c>
+      <c r="E101" s="58">
+        <v>1</v>
+      </c>
+      <c r="F101" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G101" s="60">
+        <v>0</v>
+      </c>
+      <c r="H101" s="58">
+        <v>0</v>
+      </c>
+      <c r="I101" s="58">
+        <v>0</v>
+      </c>
+      <c r="J101" s="58">
+        <v>6.35</v>
+      </c>
+      <c r="K101" s="58">
+        <v>7.7</v>
+      </c>
+      <c r="L101" s="58">
+        <v>7.6</v>
+      </c>
+      <c r="M101" s="58">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N101" s="58">
+        <v>0</v>
+      </c>
+      <c r="O101" s="58">
+        <v>1.35</v>
+      </c>
+      <c r="P101" s="58">
+        <v>6.43</v>
+      </c>
+      <c r="Q101" s="58">
+        <v>3.82</v>
+      </c>
+      <c r="R101" s="58">
+        <f t="shared" si="112"/>
+        <v>6.35</v>
+      </c>
+      <c r="S101" s="58">
+        <f t="shared" si="112"/>
+        <v>6.35</v>
+      </c>
+      <c r="T101" s="58">
+        <f t="shared" si="113"/>
+        <v>1.17</v>
+      </c>
+      <c r="U101" s="60">
+        <f t="shared" si="113"/>
+        <v>1.1600000000000006</v>
+      </c>
+      <c r="V101" s="58">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="W101" s="58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X101" s="58">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="Y101" s="58">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Z101" s="61">
+        <f t="shared" ref="Z101" si="115">SUM(V101:Y101)</f>
+        <v>0.98354999999999992</v>
+      </c>
+      <c r="AA101" s="58">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="AB101" s="58">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AC101" s="58">
+        <v>5.35</v>
+      </c>
+      <c r="AD101" s="58">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B102" s="14">
+        <v>0</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="14">
+        <v>10</v>
+      </c>
+      <c r="E102" s="14">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14">
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H102" s="14">
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
+        <v>0</v>
+      </c>
+      <c r="J102" s="14">
+        <v>5.47</v>
+      </c>
+      <c r="K102" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="L102" s="14">
+        <v>5.47</v>
+      </c>
+      <c r="M102" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="N102" s="14">
+        <v>3.48</v>
+      </c>
+      <c r="O102" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="P102" s="14">
+        <v>3.48</v>
+      </c>
+      <c r="Q102" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="R102" s="14">
+        <f t="shared" si="112"/>
+        <v>1.9899999999999998</v>
+      </c>
+      <c r="S102" s="14">
+        <f t="shared" si="112"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="T102" s="14">
+        <f t="shared" si="113"/>
+        <v>1.9899999999999998</v>
+      </c>
+      <c r="U102" s="15">
+        <f t="shared" si="113"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="V102" s="14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W102" s="14">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="X102" s="14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Y102" s="14">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z102" s="17">
+        <f>SUM(V102:Y102)</f>
+        <v>0.996</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB102" s="14">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AC102" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD102" s="14">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B103" s="14">
+        <v>1</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="14">
+        <v>10</v>
+      </c>
+      <c r="E103" s="14">
+        <v>1</v>
+      </c>
+      <c r="F103" s="14">
+        <v>0</v>
+      </c>
+      <c r="G103" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H103" s="14">
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
+        <v>0</v>
+      </c>
+      <c r="J103" s="14">
+        <v>4.91</v>
+      </c>
+      <c r="K103" s="14">
+        <v>6.02</v>
+      </c>
+      <c r="L103" s="14">
+        <v>7.48</v>
+      </c>
+      <c r="M103" s="14">
+        <v>3.63</v>
+      </c>
+      <c r="N103" s="14">
+        <v>0</v>
+      </c>
+      <c r="O103" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P103" s="14">
+        <v>6.23</v>
+      </c>
+      <c r="Q103" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="R103" s="14">
+        <f t="shared" si="112"/>
+        <v>4.91</v>
+      </c>
+      <c r="S103" s="14">
+        <f t="shared" si="112"/>
+        <v>4.9099999999999993</v>
+      </c>
+      <c r="T103" s="14">
+        <f t="shared" si="113"/>
+        <v>1.25</v>
+      </c>
+      <c r="U103" s="15">
+        <f t="shared" si="113"/>
+        <v>1.2399999999999998</v>
+      </c>
+      <c r="V103" s="14">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="W103" s="14">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="X103" s="14">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="Y103" s="14">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Z103" s="17">
+        <f t="shared" ref="Z103" si="116">SUM(V103:Y103)</f>
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="AA103" s="14">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="AB103" s="14">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AC103" s="14">
+        <v>3.91</v>
+      </c>
+      <c r="AD103" s="14">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="104" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B104" s="58">
+        <v>0</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="58">
+        <v>10</v>
+      </c>
+      <c r="E104" s="58">
+        <v>1</v>
+      </c>
+      <c r="F104" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G104" s="60">
+        <v>3</v>
+      </c>
+      <c r="H104" s="58">
+        <v>0</v>
+      </c>
+      <c r="I104" s="58">
+        <v>0</v>
+      </c>
+      <c r="J104" s="58">
+        <v>4.87</v>
+      </c>
+      <c r="K104" s="58">
+        <v>6.95</v>
+      </c>
+      <c r="L104" s="58">
+        <v>2.8</v>
+      </c>
+      <c r="M104" s="58">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N104" s="58">
+        <v>1.4</v>
+      </c>
+      <c r="O104" s="58">
+        <v>3.48</v>
+      </c>
+      <c r="P104" s="58">
+        <v>1.4</v>
+      </c>
+      <c r="Q104" s="58">
+        <v>3.46</v>
+      </c>
+      <c r="R104" s="58">
+        <f t="shared" si="112"/>
+        <v>3.47</v>
+      </c>
+      <c r="S104" s="58">
+        <f t="shared" si="112"/>
+        <v>3.47</v>
+      </c>
+      <c r="T104" s="58">
+        <f t="shared" si="113"/>
+        <v>1.4</v>
+      </c>
+      <c r="U104" s="60">
+        <f t="shared" si="113"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="V104" s="58">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="W104" s="58">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="X104" s="58">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="Y104" s="58">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Z104" s="61">
+        <f>SUM(V104:Y104)</f>
+        <v>0.99620000000000009</v>
+      </c>
+      <c r="AA104" s="58">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AB104" s="58">
+        <v>2.48</v>
+      </c>
+      <c r="AC104" s="58">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD104" s="58">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B105" s="58">
+        <v>1</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="58">
+        <v>10</v>
+      </c>
+      <c r="E105" s="58">
+        <v>1</v>
+      </c>
+      <c r="F105" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G105" s="60">
+        <v>3</v>
+      </c>
+      <c r="H105" s="58">
+        <v>0</v>
+      </c>
+      <c r="I105" s="58">
+        <v>0</v>
+      </c>
+      <c r="J105" s="58">
+        <v>5.72</v>
+      </c>
+      <c r="K105" s="58">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="L105" s="58">
+        <v>6.77</v>
+      </c>
+      <c r="M105" s="58">
+        <v>6.5</v>
+      </c>
+      <c r="N105" s="58">
+        <v>0</v>
+      </c>
+      <c r="O105" s="58">
+        <v>2.64</v>
+      </c>
+      <c r="P105" s="58">
+        <v>5.57</v>
+      </c>
+      <c r="Q105" s="58">
+        <v>5.31</v>
+      </c>
+      <c r="R105" s="58">
+        <f t="shared" si="112"/>
+        <v>5.72</v>
+      </c>
+      <c r="S105" s="58">
+        <f t="shared" si="112"/>
+        <v>5.7299999999999986</v>
+      </c>
+      <c r="T105" s="58">
+        <f t="shared" si="113"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="U105" s="60">
+        <f t="shared" si="113"/>
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="V105" s="58">
+        <v>0.34</v>
+      </c>
+      <c r="W105" s="58">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="X105" s="58">
+        <v>5.9699999999999996E-3</v>
+      </c>
+      <c r="Y105" s="58">
+        <v>0.156</v>
+      </c>
+      <c r="Z105" s="61">
+        <f t="shared" ref="Z105" si="117">SUM(V105:Y105)</f>
+        <v>0.98697000000000001</v>
+      </c>
+      <c r="AA105" s="58">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="AB105" s="58">
+        <v>2.11</v>
+      </c>
+      <c r="AC105" s="58">
+        <v>4.72</v>
+      </c>
+      <c r="AD105" s="58">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="106" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="58">
+        <v>0</v>
+      </c>
+      <c r="C106" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="58">
+        <v>10</v>
+      </c>
+      <c r="E106" s="58">
+        <v>3</v>
+      </c>
+      <c r="F106" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G106" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H106" s="58">
+        <v>0</v>
+      </c>
+      <c r="I106" s="58">
+        <v>0</v>
+      </c>
+      <c r="J106" s="58">
+        <v>6.81</v>
+      </c>
+      <c r="K106" s="58">
+        <v>4.75</v>
+      </c>
+      <c r="L106" s="58">
+        <v>4.72</v>
+      </c>
+      <c r="M106" s="58">
+        <v>2.74</v>
+      </c>
+      <c r="N106" s="58">
+        <v>3.45</v>
+      </c>
+      <c r="O106" s="58">
+        <v>1.39</v>
+      </c>
+      <c r="P106" s="58">
+        <v>3.33</v>
+      </c>
+      <c r="Q106" s="58">
+        <v>1.36</v>
+      </c>
+      <c r="R106" s="58">
+        <f>J106-N106-$H106</f>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="S106" s="58">
+        <f>K106-O106-$H106</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="T106" s="58">
+        <f>L106-P106-$I106</f>
+        <v>1.3899999999999997</v>
+      </c>
+      <c r="U106" s="60">
+        <f>M106-Q106-$I106</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="V106" s="58">
+        <v>0.504</v>
+      </c>
+      <c r="W106" s="58">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X106" s="58">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y106" s="58">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="Z106" s="61">
+        <f t="shared" ref="Z106" si="118">SUM(V106:Y106)</f>
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="AA106" s="58">
+        <v>2.42</v>
+      </c>
+      <c r="AB106" s="58">
+        <v>0.374</v>
+      </c>
+      <c r="AC106" s="58">
+        <v>2.36</v>
+      </c>
+      <c r="AD106" s="58">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="58">
+        <v>1</v>
+      </c>
+      <c r="C107" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="58">
+        <v>10</v>
+      </c>
+      <c r="E107" s="58">
+        <v>3</v>
+      </c>
+      <c r="F107" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G107" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H107" s="58">
+        <v>0</v>
+      </c>
+      <c r="I107" s="58">
+        <v>0</v>
+      </c>
+      <c r="J107" s="58">
+        <v>7.06</v>
+      </c>
+      <c r="K107" s="58">
+        <v>8.17</v>
+      </c>
+      <c r="L107" s="58">
+        <v>8.39</v>
+      </c>
+      <c r="M107" s="58">
+        <v>3.34</v>
+      </c>
+      <c r="N107" s="58">
+        <v>0</v>
+      </c>
+      <c r="O107" s="58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P107" s="58">
+        <v>7.28</v>
+      </c>
+      <c r="Q107" s="58">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R107" s="58">
+        <f>J107-N107-$H107</f>
+        <v>7.06</v>
+      </c>
+      <c r="S107" s="58">
+        <f>K107-O107-$H107</f>
+        <v>7.05</v>
+      </c>
+      <c r="T107" s="58">
+        <f>L107-P107-$I107</f>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="U107" s="60">
+        <f>M107-Q107-$I107</f>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="V107" s="58">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="W107" s="58">
+        <v>1.38E-2</v>
+      </c>
+      <c r="X107" s="58">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y107" s="58">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Z107" s="61">
+        <f t="shared" ref="Z107" si="119">SUM(V107:Y107)</f>
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="AA107" s="58">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="AB107" s="58">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AC107" s="58">
+        <v>6.06</v>
+      </c>
+      <c r="AD107" s="58">
+        <v>0.108</v>
+      </c>
     </row>
     <row r="108" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C108" s="13"/>
@@ -9248,11 +10050,8914 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70ABDB4-6AEF-4184-89E6-855BD3C5332D}">
+  <dimension ref="A1:AD119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="18" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8"/>
+      <c r="D1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="43"/>
+      <c r="J1" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+    </row>
+    <row r="2" spans="1:30" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="14" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="N3" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P3" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R3" s="14">
+        <f>J3-N3-$H3</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="S3" s="14">
+        <f>K3-O3-$H3</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="T3" s="14">
+        <f>L3-P3-$I3</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="U3" s="15">
+        <f>M3-Q3-$I3</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="V3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="W3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="X3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="Z3" s="17">
+        <f>SUM(V3:Y3)</f>
+        <v>0.1416</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1.42</v>
+      </c>
+      <c r="O4" s="14">
+        <v>1.42</v>
+      </c>
+      <c r="P4" s="14">
+        <v>1.42</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1.42</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" ref="R4:S17" si="0">J4-N4-$H4</f>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" ref="T4:U8" si="1">L4-P4-$I4</f>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="Z4" s="17">
+        <f t="shared" ref="Z4:Z8" si="2">SUM(V4:Y4)</f>
+        <v>0.504</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>3.69</v>
+      </c>
+      <c r="K5" s="14">
+        <v>3.69</v>
+      </c>
+      <c r="L5" s="14">
+        <v>3.69</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3.69</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="Z5" s="17">
+        <f t="shared" si="2"/>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M6" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="V6" s="14">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="W6" s="14">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="X6" s="14">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Z6" s="17">
+        <f t="shared" si="2"/>
+        <v>0.18710000000000002</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.92</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3.06</v>
+      </c>
+      <c r="M7" s="14">
+        <v>2.62</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1.26</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1.81</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1.38</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="0"/>
+        <v>1.66</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="0"/>
+        <v>1.66</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="W7" s="14">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="X7" s="14">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Z7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>2.66</v>
+      </c>
+      <c r="K8" s="14">
+        <v>4.04</v>
+      </c>
+      <c r="L8" s="14">
+        <v>4.38</v>
+      </c>
+      <c r="M8" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1.38</v>
+      </c>
+      <c r="P8" s="14">
+        <v>2.94</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="X8" s="14">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0.215</v>
+      </c>
+      <c r="Z8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="Z9" s="61"/>
+    </row>
+    <row r="10" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K10" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="L10" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M10" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="R10" s="14">
+        <f>J10-N10-$H10</f>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="T10" s="14">
+        <f>L10-P10-$I10</f>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="U10" s="15">
+        <f>M10-Q10-$I10</f>
+        <v>1.04</v>
+      </c>
+      <c r="V10" s="14">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="W10" s="14">
+        <v>3.85E-2</v>
+      </c>
+      <c r="X10" s="14">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>3.85E-2</v>
+      </c>
+      <c r="Z10" s="17">
+        <f>SUM(V10:Y10)</f>
+        <v>8.1339999999999996E-2</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>4.24E-2</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K11" s="14">
+        <v>3.12</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M11" s="14">
+        <v>3.12</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1.86</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>1.86</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" ref="R11:R17" si="3">J11-N11-$H11</f>
+        <v>1.2699999999999998</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" ref="T11:U15" si="4">L11-P11-$I11</f>
+        <v>1.2699999999999998</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="4"/>
+        <v>1.26</v>
+      </c>
+      <c r="V11" s="14">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0.188</v>
+      </c>
+      <c r="X11" s="14">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0.188</v>
+      </c>
+      <c r="Z11" s="17">
+        <f>SUM(V11:Y11)</f>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="K12" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="L12" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="M12" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="3"/>
+        <v>1.57</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5799999999999996</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.57</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5799999999999996</v>
+      </c>
+      <c r="V12" s="14">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="X12" s="14">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="Z12" s="17">
+        <f t="shared" ref="Z12:Z17" si="5">SUM(V12:Y12)</f>
+        <v>0.7288</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>1.61</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>3.29</v>
+      </c>
+      <c r="K13" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="L13" s="14">
+        <v>3.29</v>
+      </c>
+      <c r="M13" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="O13" s="14">
+        <v>3.37</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>3.37</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="3"/>
+        <v>1.93</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="4"/>
+        <v>1.93</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="4"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z13" s="17">
+        <f t="shared" si="5"/>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>2.37</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.09</v>
+      </c>
+      <c r="M14" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P14" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="3"/>
+        <v>1.05</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="4"/>
+        <v>1.04</v>
+      </c>
+      <c r="V14" s="14">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="W14" s="14">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="X14" s="14">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="Z14" s="17">
+        <f>SUM(V14:Y14)</f>
+        <v>8.4559999999999996E-2</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="K15" s="14">
+        <v>3.11</v>
+      </c>
+      <c r="L15" s="14">
+        <v>2.54</v>
+      </c>
+      <c r="M15" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="P15" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>1.83</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="3"/>
+        <v>1.31</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3099999999999998</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="4"/>
+        <v>1.26</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="4"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="V15" s="14">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0.183</v>
+      </c>
+      <c r="X15" s="14">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0.187</v>
+      </c>
+      <c r="Z15" s="17">
+        <f t="shared" si="5"/>
+        <v>0.4415</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0.313</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="K16" s="14">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L16" s="14">
+        <v>3.16</v>
+      </c>
+      <c r="M16" s="14">
+        <v>4.18</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1.68</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="3"/>
+        <v>1.79</v>
+      </c>
+      <c r="S16" s="14">
+        <f t="shared" si="0"/>
+        <v>1.7800000000000002</v>
+      </c>
+      <c r="T16" s="14">
+        <f>L16-P16-$I16</f>
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="U16" s="15">
+        <f>M16-Q16-$I16</f>
+        <v>1.4899999999999998</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0.157</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="X16" s="14">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="Z16" s="17">
+        <f t="shared" si="5"/>
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>1.45</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>4.04</v>
+      </c>
+      <c r="M17" s="14">
+        <v>5.29</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="P17" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="S17" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" ref="T17:U17" si="6">L17-P17-$I17</f>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="6"/>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="X17" s="14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="Z17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>2.09</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="Z18" s="22"/>
+    </row>
+    <row r="19" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="K19" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="L19" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="M19" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" ref="R19:S24" si="7">J19-N19-$H19</f>
+        <v>1.04</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="7"/>
+        <v>1.04</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" ref="T19:U24" si="8">L19-P19-$I19</f>
+        <v>1.04</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="8"/>
+        <v>1.04</v>
+      </c>
+      <c r="V19" s="14">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="W19" s="14">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="X19" s="14">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="Z19" s="17">
+        <f t="shared" ref="Z19:Z24" si="9">SUM(V19:Y19)</f>
+        <v>7.9009999999999997E-2</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>4.07</v>
+      </c>
+      <c r="K20" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L20" s="14">
+        <v>4.07</v>
+      </c>
+      <c r="M20" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="N20" s="14">
+        <v>2.64</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="P20" s="14">
+        <v>2.64</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="7"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="S20" s="14">
+        <f t="shared" si="7"/>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="8"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="8"/>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W20" s="14">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="Z20" s="17">
+        <f t="shared" si="9"/>
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>1.45</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>5.61</v>
+      </c>
+      <c r="K21" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="L21" s="14">
+        <v>5.61</v>
+      </c>
+      <c r="M21" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="N21" s="14">
+        <v>3.79</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="P21" s="14">
+        <v>3.79</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="7"/>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" si="7"/>
+        <v>1.82</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="8"/>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="8"/>
+        <v>1.82</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="W21" s="14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="X21" s="14">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Z21" s="17">
+        <f t="shared" si="9"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K22" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>2.23</v>
+      </c>
+      <c r="M22" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P22" s="14">
+        <v>1.19</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>1.02</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="7"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="7"/>
+        <v>1.1150000000000002</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="8"/>
+        <v>1.04</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="8"/>
+        <v>1.04</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0.104</v>
+      </c>
+      <c r="W22" s="14">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="X22" s="14">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>7.4200000000000004E-4</v>
+      </c>
+      <c r="Z22" s="17">
+        <f t="shared" si="9"/>
+        <v>0.13955099999999998</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>4.07E-2</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="K23" s="14">
+        <v>3.85</v>
+      </c>
+      <c r="L23" s="14">
+        <v>4.63</v>
+      </c>
+      <c r="M23" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="7"/>
+        <v>2.75</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="7"/>
+        <v>2.75</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="8"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="8"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="W23" s="14">
+        <v>3.8600000000000001E-3</v>
+      </c>
+      <c r="X23" s="14">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>2.01E-2</v>
+      </c>
+      <c r="Z23" s="17">
+        <f t="shared" si="9"/>
+        <v>0.75225999999999993</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="K24" s="14">
+        <v>5.57</v>
+      </c>
+      <c r="L24" s="14">
+        <v>6.92</v>
+      </c>
+      <c r="M24" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="P24" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>1.51</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="7"/>
+        <v>4.49</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" si="7"/>
+        <v>4.49</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="8"/>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="U24" s="15">
+        <f t="shared" si="8"/>
+        <v>1.18</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="W24" s="14">
+        <v>4.81E-3</v>
+      </c>
+      <c r="X24" s="14">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="Z24" s="17">
+        <f t="shared" si="9"/>
+        <v>0.93151000000000006</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>3.49</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="Z25" s="22"/>
+    </row>
+    <row r="26" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K26" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L26" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="M26" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="P26" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" ref="R26:S33" si="10">J26-N26-$H26</f>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="10"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="T26" s="14">
+        <f>L26-P26-$I26</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="U26" s="15">
+        <f>M26-Q26-$I26</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="V26" s="14">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="W26" s="14">
+        <v>2.16E-3</v>
+      </c>
+      <c r="X26" s="14">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="Z26" s="17">
+        <f>SUM(V26:Y26)</f>
+        <v>8.1530000000000005E-2</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>8.3599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>2.27</v>
+      </c>
+      <c r="K27" s="14">
+        <v>2.27</v>
+      </c>
+      <c r="L27" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="M27" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="N27" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="O27" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="P27" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="S27" s="14">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" ref="T27:U31" si="11">L27-P27-$I27</f>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="U27" s="15">
+        <f t="shared" si="11"/>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="V27" s="14">
+        <v>2.18E-2</v>
+      </c>
+      <c r="W27" s="14">
+        <v>2.18E-2</v>
+      </c>
+      <c r="X27" s="14">
+        <v>0.191</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0.191</v>
+      </c>
+      <c r="Z27" s="17">
+        <f>SUM(V27:Y27)</f>
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>0.309</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0.309</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>2.63</v>
+      </c>
+      <c r="K28" s="14">
+        <v>2.63</v>
+      </c>
+      <c r="L28" s="14">
+        <v>4.24</v>
+      </c>
+      <c r="M28" s="14">
+        <v>4.24</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1.46</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1.46</v>
+      </c>
+      <c r="P28" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" si="10"/>
+        <v>1.17</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" si="10"/>
+        <v>1.17</v>
+      </c>
+      <c r="T28" s="14">
+        <f t="shared" si="11"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U28" s="15">
+        <f t="shared" si="11"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="V28" s="14">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="W28" s="14">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="X28" s="14">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="Z28" s="17">
+        <f t="shared" ref="Z28:Z51" si="12">SUM(V28:Y28)</f>
+        <v>0.74259999999999993</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="K29" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="L29" s="14">
+        <v>5.28</v>
+      </c>
+      <c r="M29" s="14">
+        <v>5.28</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1.87</v>
+      </c>
+      <c r="O29" s="14">
+        <v>1.87</v>
+      </c>
+      <c r="P29" s="14">
+        <v>1.97</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>1.97</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="10"/>
+        <v>1.37</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="10"/>
+        <v>1.37</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="11"/>
+        <v>3.3100000000000005</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="11"/>
+        <v>3.3100000000000005</v>
+      </c>
+      <c r="V29" s="14">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="W29" s="14">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X29" s="14">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="Z29" s="17">
+        <f t="shared" si="12"/>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="K30" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L30" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="M30" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="P30" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" si="10"/>
+        <v>1.01</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="10"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="T30" s="14">
+        <f t="shared" si="11"/>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="11"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="V30" s="14">
+        <v>6.11E-3</v>
+      </c>
+      <c r="W30" s="14">
+        <v>2.15E-3</v>
+      </c>
+      <c r="X30" s="14">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>3.85E-2</v>
+      </c>
+      <c r="Z30" s="17">
+        <f>SUM(V30:Y30)</f>
+        <v>8.4960000000000008E-2</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>8.3400000000000002E-3</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K31" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L31" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="M31" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="P31" s="14">
+        <v>1.51</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S31" s="14">
+        <f t="shared" si="10"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" si="11"/>
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="11"/>
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="V31" s="14">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="W31" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="X31" s="14">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>0.189</v>
+      </c>
+      <c r="Z31" s="17">
+        <f t="shared" si="12"/>
+        <v>0.45690000000000003</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="K32" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="L32" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M32" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>1.34</v>
+      </c>
+      <c r="P32" s="14">
+        <v>1.89</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" si="10"/>
+        <v>1.35</v>
+      </c>
+      <c r="S32" s="14">
+        <f t="shared" si="10"/>
+        <v>1.34</v>
+      </c>
+      <c r="T32" s="14">
+        <f>L32-P32-$I32</f>
+        <v>2.21</v>
+      </c>
+      <c r="U32" s="15">
+        <f>M32-Q32-$I32</f>
+        <v>2.21</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="W32" s="14">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="X32" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="Z32" s="17">
+        <f t="shared" si="12"/>
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <v>1.61</v>
+      </c>
+      <c r="K33" s="14">
+        <v>3.03</v>
+      </c>
+      <c r="L33" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="M33" s="14">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>1.42</v>
+      </c>
+      <c r="P33" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>1.97</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="10"/>
+        <v>1.61</v>
+      </c>
+      <c r="S33" s="14">
+        <f t="shared" si="10"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="T33" s="14">
+        <f t="shared" ref="T33:U33" si="13">L33-P33-$I33</f>
+        <v>2.54</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" si="13"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="V33" s="14">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="W33" s="14">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="X33" s="14">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Z33" s="17">
+        <f t="shared" si="12"/>
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="Z34" s="22"/>
+    </row>
+    <row r="35" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="K35" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="L35" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="M35" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N35" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="P35" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" ref="R35:S40" si="14">J35-N35-$H35</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="S35" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" ref="T35:U40" si="15">L35-P35-$I35</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" si="15"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="V35" s="14">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="W35" s="14">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="X35" s="14">
+        <v>8.03E-4</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="Z35" s="17">
+        <f t="shared" ref="Z35:Z40" si="16">SUM(V35:Y35)</f>
+        <v>7.9204999999999998E-2</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>1.6100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14">
+        <v>4</v>
+      </c>
+      <c r="K36" s="14">
+        <v>4</v>
+      </c>
+      <c r="L36" s="14">
+        <v>2.35</v>
+      </c>
+      <c r="M36" s="14">
+        <v>2.34</v>
+      </c>
+      <c r="N36" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="O36" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="P36" s="14">
+        <v>1.29</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>1.29</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="14"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S36" s="14">
+        <f t="shared" si="14"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T36" s="14">
+        <f t="shared" si="15"/>
+        <v>1.06</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="15"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="V36" s="14">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="W36" s="14">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="X36" s="14">
+        <v>2.69E-2</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>2.69E-2</v>
+      </c>
+      <c r="Z36" s="17">
+        <f t="shared" si="16"/>
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="AB36" s="14">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="AC36" s="14">
+        <v>1.29</v>
+      </c>
+      <c r="AD36" s="14">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <v>5.53</v>
+      </c>
+      <c r="K37" s="14">
+        <v>5.53</v>
+      </c>
+      <c r="L37" s="14">
+        <v>2.89</v>
+      </c>
+      <c r="M37" s="14">
+        <v>2.89</v>
+      </c>
+      <c r="N37" s="14">
+        <v>1.93</v>
+      </c>
+      <c r="O37" s="14">
+        <v>1.93</v>
+      </c>
+      <c r="P37" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="R37" s="14">
+        <f t="shared" si="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="S37" s="14">
+        <f t="shared" si="14"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="T37" s="14">
+        <f t="shared" si="15"/>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="U37" s="15">
+        <f t="shared" si="15"/>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="V37" s="14">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="W37" s="14">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="X37" s="14">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="Z37" s="17">
+        <f t="shared" si="16"/>
+        <v>0.9081999999999999</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="AD37" s="14">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K38" s="14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L38" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="M38" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14">
+        <v>1.07</v>
+      </c>
+      <c r="P38" s="14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>1.03</v>
+      </c>
+      <c r="R38" s="14">
+        <f t="shared" si="14"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S38" s="14">
+        <f t="shared" si="14"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" si="15"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="U38" s="15">
+        <f t="shared" si="15"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="V38" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="W38" s="14">
+        <v>3.44E-2</v>
+      </c>
+      <c r="X38" s="14">
+        <v>6.7400000000000001E-4</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>7.6199999999999998E-4</v>
+      </c>
+      <c r="Z38" s="17">
+        <f t="shared" si="16"/>
+        <v>0.13583600000000004</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>7.7799999999999994E-5</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>3.78E-2</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>0.155</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>1.4400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="K39" s="14">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L39" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M39" s="14">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="P39" s="14">
+        <v>3.07</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R39" s="14">
+        <f t="shared" si="14"/>
+        <v>3.1</v>
+      </c>
+      <c r="S39" s="14">
+        <f t="shared" si="14"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" si="15"/>
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="U39" s="15">
+        <f t="shared" si="15"/>
+        <v>1.0300000000000002</v>
+      </c>
+      <c r="V39" s="14">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="W39" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="X39" s="14">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="Z39" s="17">
+        <f t="shared" si="16"/>
+        <v>0.70488000000000006</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>1.11E-2</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>0.217</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="K40" s="14">
+        <v>6.36</v>
+      </c>
+      <c r="L40" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="M40" s="14">
+        <v>2.96</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="P40" s="14">
+        <v>4.79</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="R40" s="14">
+        <f t="shared" si="14"/>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S40" s="14">
+        <f t="shared" si="14"/>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="T40" s="14">
+        <f t="shared" si="15"/>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="U40" s="15">
+        <f t="shared" si="15"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="W40" s="14">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="X40" s="14">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="Z40" s="17">
+        <f t="shared" si="16"/>
+        <v>0.90075000000000005</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="Z41" s="22"/>
+    </row>
+    <row r="42" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="14">
+        <v>-6</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K42" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="L42" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="M42" s="14">
+        <v>2.31</v>
+      </c>
+      <c r="N42" s="14">
+        <v>1</v>
+      </c>
+      <c r="O42" s="14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P42" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="R42" s="14">
+        <f t="shared" ref="R42:S51" si="17">J42-N42-$H42</f>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="S42" s="14">
+        <f t="shared" si="17"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="T42" s="14">
+        <f>L42-P42-$I42</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="U42" s="15">
+        <f>M42-Q42-$I42</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V42" s="14">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W42" s="14">
+        <v>5.3299999999999997E-3</v>
+      </c>
+      <c r="X42" s="14">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="Z42" s="17">
+        <f t="shared" ref="Z42" si="18">SUM(V42:Y42)</f>
+        <v>9.9430000000000004E-2</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="AB42" s="14">
+        <v>0.113</v>
+      </c>
+      <c r="AC42" s="14">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="AD42" s="14">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K43" s="14">
+        <v>2.38</v>
+      </c>
+      <c r="L43" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="M43" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="N43" s="14">
+        <v>1</v>
+      </c>
+      <c r="O43" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="P43" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="R43" s="14">
+        <f t="shared" si="17"/>
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="S43" s="14">
+        <f t="shared" si="17"/>
+        <v>1.0199999999999998</v>
+      </c>
+      <c r="T43" s="14">
+        <f t="shared" ref="T43:U74" si="19">L43-P43-$I43</f>
+        <v>1.35</v>
+      </c>
+      <c r="U43" s="15">
+        <f t="shared" si="19"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="V43" s="14">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="W43" s="14">
+        <v>2.41E-2</v>
+      </c>
+      <c r="X43" s="14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Z43" s="17">
+        <f t="shared" si="12"/>
+        <v>0.28681000000000001</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AC43" s="14">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K44" s="14">
+        <v>3.16</v>
+      </c>
+      <c r="L44" s="14">
+        <v>3.24</v>
+      </c>
+      <c r="M44" s="14">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N44" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O44" s="14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P44" s="14">
+        <v>1.19</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>2.81</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" si="17"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="S44" s="14">
+        <f t="shared" si="17"/>
+        <v>1.1500000000000004</v>
+      </c>
+      <c r="T44" s="14">
+        <f t="shared" si="19"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="U44" s="15">
+        <f t="shared" si="19"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="V44" s="14">
+        <v>1.41E-2</v>
+      </c>
+      <c r="W44" s="14">
+        <v>0.113</v>
+      </c>
+      <c r="X44" s="14">
+        <v>0.104</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Z44" s="17">
+        <f t="shared" si="12"/>
+        <v>0.64009999999999989</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AB44" s="14">
+        <v>1.38</v>
+      </c>
+      <c r="AC44" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AD44" s="14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="14">
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="K45" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="L45" s="14">
+        <v>4.12</v>
+      </c>
+      <c r="M45" s="14">
+        <v>6.08</v>
+      </c>
+      <c r="N45" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="O45" s="14">
+        <v>2.74</v>
+      </c>
+      <c r="P45" s="14">
+        <v>1.32</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="R45" s="14">
+        <f t="shared" si="17"/>
+        <v>1.29</v>
+      </c>
+      <c r="S45" s="14">
+        <f t="shared" si="17"/>
+        <v>1.29</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" si="19"/>
+        <v>2.8</v>
+      </c>
+      <c r="U45" s="15">
+        <f t="shared" si="19"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="V45" s="14">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="W45" s="14">
+        <v>0.184</v>
+      </c>
+      <c r="X45" s="14">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Z45" s="17">
+        <f t="shared" si="12"/>
+        <v>0.86959999999999993</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB45" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="AC45" s="14">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AD45" s="14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>2.76</v>
+      </c>
+      <c r="K46" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="L46" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="M46" s="14">
+        <v>6.87</v>
+      </c>
+      <c r="N46" s="14">
+        <v>1.37</v>
+      </c>
+      <c r="O46" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="P46" s="14">
+        <v>1.39</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="R46" s="14">
+        <f t="shared" si="17"/>
+        <v>1.3899999999999997</v>
+      </c>
+      <c r="S46" s="14">
+        <f t="shared" si="17"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="T46" s="14">
+        <f t="shared" si="19"/>
+        <v>3.41</v>
+      </c>
+      <c r="U46" s="15">
+        <f t="shared" si="19"/>
+        <v>3.4</v>
+      </c>
+      <c r="V46" s="14">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="W46" s="14">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="X46" s="14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>0.505</v>
+      </c>
+      <c r="Z46" s="17">
+        <f t="shared" si="12"/>
+        <v>0.98720000000000008</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AB46" s="14">
+        <v>2.44</v>
+      </c>
+      <c r="AC46" s="14">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="14">
+        <v>-6</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="K47" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2.12</v>
+      </c>
+      <c r="M47" s="14">
+        <v>2.31</v>
+      </c>
+      <c r="N47" s="14">
+        <v>0</v>
+      </c>
+      <c r="O47" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P47" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="R47" s="14">
+        <f t="shared" si="17"/>
+        <v>1.01</v>
+      </c>
+      <c r="S47" s="14">
+        <f t="shared" si="17"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="T47" s="14">
+        <f t="shared" si="19"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U47" s="15">
+        <f t="shared" si="19"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V47" s="14">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="W47" s="14">
+        <v>5.4099999999999999E-3</v>
+      </c>
+      <c r="X47" s="14">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="Y47" s="14">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="Z47" s="17">
+        <f t="shared" si="12"/>
+        <v>9.9895999999999999E-2</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>5.45E-3</v>
+      </c>
+      <c r="AB47" s="14">
+        <v>0.113</v>
+      </c>
+      <c r="AC47" s="14">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="AD47" s="14">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="14">
+        <v>-4</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
+        <v>1.03</v>
+      </c>
+      <c r="K48" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="M48" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="P48" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="R48" s="14">
+        <f t="shared" si="17"/>
+        <v>1.03</v>
+      </c>
+      <c r="S48" s="14">
+        <f t="shared" si="17"/>
+        <v>1.03</v>
+      </c>
+      <c r="T48" s="14">
+        <f t="shared" si="19"/>
+        <v>1.35</v>
+      </c>
+      <c r="U48" s="15">
+        <f t="shared" si="19"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="V48" s="14">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="W48" s="14">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="X48" s="14">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Z48" s="17">
+        <f t="shared" si="12"/>
+        <v>0.28894999999999998</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AB48" s="14">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AC48" s="14">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AD48" s="14">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="K49" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="L49" s="14">
+        <v>3.28</v>
+      </c>
+      <c r="M49" s="14">
+        <v>4.83</v>
+      </c>
+      <c r="N49" s="14">
+        <v>0</v>
+      </c>
+      <c r="O49" s="14">
+        <v>1.97</v>
+      </c>
+      <c r="P49" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>2.82</v>
+      </c>
+      <c r="R49" s="14">
+        <f t="shared" si="17"/>
+        <v>1.18</v>
+      </c>
+      <c r="S49" s="14">
+        <f t="shared" si="17"/>
+        <v>1.18</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" si="19"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U49" s="15">
+        <f t="shared" si="19"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="V49" s="14">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="W49" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="X49" s="14">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="Z49" s="17">
+        <f t="shared" si="12"/>
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>0.122</v>
+      </c>
+      <c r="AB49" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="AC49" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AD49" s="14">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="14">
+        <v>0</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <v>1.39</v>
+      </c>
+      <c r="K50" s="14">
+        <v>3.87</v>
+      </c>
+      <c r="L50" s="14">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="M50" s="14">
+        <v>5.89</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="P50" s="14">
+        <v>1.47</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="R50" s="14">
+        <f t="shared" si="17"/>
+        <v>1.39</v>
+      </c>
+      <c r="S50" s="14">
+        <f t="shared" si="17"/>
+        <v>1.4</v>
+      </c>
+      <c r="T50" s="14">
+        <f t="shared" si="19"/>
+        <v>2.59</v>
+      </c>
+      <c r="U50" s="15">
+        <f t="shared" si="19"/>
+        <v>2.59</v>
+      </c>
+      <c r="V50" s="14">
+        <v>0.105</v>
+      </c>
+      <c r="W50" s="14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="X50" s="14">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="Z50" s="17">
+        <f t="shared" si="12"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>0.215</v>
+      </c>
+      <c r="AB50" s="14">
+        <v>1.98</v>
+      </c>
+      <c r="AC50" s="14">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="14">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="14">
+        <v>0</v>
+      </c>
+      <c r="I51" s="14">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <v>1.53</v>
+      </c>
+      <c r="K51" s="14">
+        <v>4.26</v>
+      </c>
+      <c r="L51" s="14">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M51" s="14">
+        <v>6.34</v>
+      </c>
+      <c r="N51" s="14">
+        <v>0</v>
+      </c>
+      <c r="O51" s="14">
+        <v>2.73</v>
+      </c>
+      <c r="P51" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="R51" s="14">
+        <f t="shared" si="17"/>
+        <v>1.53</v>
+      </c>
+      <c r="S51" s="14">
+        <f t="shared" si="17"/>
+        <v>1.5299999999999998</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" si="19"/>
+        <v>2.8400000000000003</v>
+      </c>
+      <c r="U51" s="15">
+        <f t="shared" si="19"/>
+        <v>2.84</v>
+      </c>
+      <c r="V51" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="W51" s="14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="X51" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Z51" s="17">
+        <f t="shared" si="12"/>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="AB51" s="14">
+        <v>2.23</v>
+      </c>
+      <c r="AC51" s="14">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AD51" s="14">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="Z52" s="22"/>
+    </row>
+    <row r="53" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G53" s="15">
+        <v>3</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="K53" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="L53" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M53" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="N53" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="O53" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="P53" s="14">
+        <v>1.03</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="R53" s="14">
+        <f t="shared" ref="R53:S58" si="20">J53-N53-$H53</f>
+        <v>1.35</v>
+      </c>
+      <c r="S53" s="14">
+        <f t="shared" si="20"/>
+        <v>1.36</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" ref="T53:U58" si="21">L53-P53-$I53</f>
+        <v>1.0199999999999998</v>
+      </c>
+      <c r="U53" s="15">
+        <f t="shared" si="21"/>
+        <v>1.03</v>
+      </c>
+      <c r="V53" s="14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W53" s="14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="X53" s="14">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>2.41E-2</v>
+      </c>
+      <c r="Z53" s="17">
+        <f t="shared" ref="Z53:Z58" si="22">SUM(V53:Y53)</f>
+        <v>0.28778000000000004</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AC53" s="14">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AD53" s="14">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G54" s="15">
+        <v>3</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <v>3.03</v>
+      </c>
+      <c r="K54" s="14">
+        <v>4.51</v>
+      </c>
+      <c r="L54" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M54" s="14">
+        <v>2.97</v>
+      </c>
+      <c r="N54" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O54" s="14">
+        <v>2.63</v>
+      </c>
+      <c r="P54" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>1.86</v>
+      </c>
+      <c r="R54" s="14">
+        <f t="shared" si="20"/>
+        <v>1.88</v>
+      </c>
+      <c r="S54" s="14">
+        <f t="shared" si="20"/>
+        <v>1.88</v>
+      </c>
+      <c r="T54" s="14">
+        <f t="shared" si="21"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U54" s="15">
+        <f t="shared" si="21"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V54" s="14">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="W54" s="14">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="X54" s="14">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="Z54" s="17">
+        <f t="shared" si="22"/>
+        <v>0.57672000000000001</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>0.107</v>
+      </c>
+      <c r="AB54" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="AC54" s="14">
+        <v>0.879</v>
+      </c>
+      <c r="AD54" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G55" s="15">
+        <v>3</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="K55" s="14">
+        <v>6.18</v>
+      </c>
+      <c r="L55" s="14">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M55" s="14">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N55" s="14">
+        <v>1.33</v>
+      </c>
+      <c r="O55" s="14">
+        <v>3.31</v>
+      </c>
+      <c r="P55" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>2.81</v>
+      </c>
+      <c r="R55" s="14">
+        <f t="shared" si="20"/>
+        <v>2.87</v>
+      </c>
+      <c r="S55" s="14">
+        <f t="shared" si="20"/>
+        <v>2.8699999999999997</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" si="21"/>
+        <v>1.3099999999999998</v>
+      </c>
+      <c r="U55" s="15">
+        <f t="shared" si="21"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="V55" s="14">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="W55" s="14">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="X55" s="14">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>0.188</v>
+      </c>
+      <c r="Z55" s="17">
+        <f t="shared" si="22"/>
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AB55" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="AC55" s="14">
+        <v>1.87</v>
+      </c>
+      <c r="AD55" s="14">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G56" s="15">
+        <v>3</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56" s="14">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1.41</v>
+      </c>
+      <c r="K56" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="L56" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M56" s="14">
+        <v>2.35</v>
+      </c>
+      <c r="N56" s="14">
+        <v>0</v>
+      </c>
+      <c r="O56" s="14">
+        <v>1.68</v>
+      </c>
+      <c r="P56" s="14">
+        <v>1.41</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>1.32</v>
+      </c>
+      <c r="R56" s="14">
+        <f t="shared" si="20"/>
+        <v>1.41</v>
+      </c>
+      <c r="S56" s="14">
+        <f t="shared" si="20"/>
+        <v>1.41</v>
+      </c>
+      <c r="T56" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="U56" s="15">
+        <f t="shared" si="21"/>
+        <v>1.03</v>
+      </c>
+      <c r="V56" s="14">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="W56" s="14">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="X56" s="14">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>2.41E-2</v>
+      </c>
+      <c r="Z56" s="17">
+        <f t="shared" si="22"/>
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="AC56" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="14">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1</v>
+      </c>
+      <c r="F57" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G57" s="15">
+        <v>3</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>2.15</v>
+      </c>
+      <c r="K57" s="14">
+        <v>4.42</v>
+      </c>
+      <c r="L57" s="14">
+        <v>3.15</v>
+      </c>
+      <c r="M57" s="14">
+        <v>2.82</v>
+      </c>
+      <c r="N57" s="14">
+        <v>0</v>
+      </c>
+      <c r="O57" s="14">
+        <v>2.27</v>
+      </c>
+      <c r="P57" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="R57" s="14">
+        <f t="shared" si="20"/>
+        <v>2.15</v>
+      </c>
+      <c r="S57" s="14">
+        <f t="shared" si="20"/>
+        <v>2.15</v>
+      </c>
+      <c r="T57" s="14">
+        <f t="shared" si="21"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U57" s="15">
+        <f t="shared" si="21"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="V57" s="14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="W57" s="14">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="X57" s="14">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="Z57" s="17">
+        <f t="shared" si="22"/>
+        <v>0.62697999999999987</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>6.5199999999999998E-3</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AC57" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD57" s="14">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="14">
+        <v>1</v>
+      </c>
+      <c r="F58" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G58" s="15">
+        <v>3</v>
+      </c>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="14">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="K58" s="14">
+        <v>6.13</v>
+      </c>
+      <c r="L58" s="14">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="M58" s="14">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N58" s="14">
+        <v>0</v>
+      </c>
+      <c r="O58" s="14">
+        <v>2.56</v>
+      </c>
+      <c r="P58" s="14">
+        <v>3.26</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>2.84</v>
+      </c>
+      <c r="R58" s="14">
+        <f t="shared" si="20"/>
+        <v>3.57</v>
+      </c>
+      <c r="S58" s="14">
+        <f t="shared" si="20"/>
+        <v>3.57</v>
+      </c>
+      <c r="T58" s="14">
+        <f t="shared" si="21"/>
+        <v>1.2200000000000006</v>
+      </c>
+      <c r="U58" s="15">
+        <f t="shared" si="21"/>
+        <v>1.2199999999999998</v>
+      </c>
+      <c r="V58" s="14">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="W58" s="14">
+        <v>0.438</v>
+      </c>
+      <c r="X58" s="14">
+        <v>5.6699999999999997E-3</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Z58" s="17">
+        <f t="shared" si="22"/>
+        <v>0.89966999999999997</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="AB58" s="14">
+        <v>1.61</v>
+      </c>
+      <c r="AC58" s="14">
+        <v>2.57</v>
+      </c>
+      <c r="AD58" s="14">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="Z59" s="22"/>
+    </row>
+    <row r="60" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="14">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1</v>
+      </c>
+      <c r="F60" s="14">
+        <v>3</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="K60" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="L60" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="M60" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="N60" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="O60" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="P60" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="R60" s="14">
+        <f t="shared" ref="R60:S65" si="23">J60-N60-$H60</f>
+        <v>1.03</v>
+      </c>
+      <c r="S60" s="14">
+        <f t="shared" si="23"/>
+        <v>1.03</v>
+      </c>
+      <c r="T60" s="14">
+        <f t="shared" ref="T60:U65" si="24">L60-P60-$I60</f>
+        <v>1.36</v>
+      </c>
+      <c r="U60" s="15">
+        <f t="shared" si="24"/>
+        <v>1.35</v>
+      </c>
+      <c r="V60" s="14">
+        <v>2.41E-2</v>
+      </c>
+      <c r="W60" s="14">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="X60" s="14">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Z60" s="17">
+        <f t="shared" ref="Z60:Z65" si="25">SUM(V60:Y60)</f>
+        <v>0.2868</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB60" s="14">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="AC60" s="14">
+        <v>2.64E-2</v>
+      </c>
+      <c r="AD60" s="14">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14">
+        <v>3</v>
+      </c>
+      <c r="G61" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <v>2.97</v>
+      </c>
+      <c r="K61" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L61" s="14">
+        <v>4.51</v>
+      </c>
+      <c r="M61" s="14">
+        <v>3.03</v>
+      </c>
+      <c r="N61" s="14">
+        <v>1.86</v>
+      </c>
+      <c r="O61" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P61" s="14">
+        <v>2.63</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R61" s="14">
+        <f t="shared" si="23"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S61" s="14">
+        <f t="shared" si="23"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" si="24"/>
+        <v>1.88</v>
+      </c>
+      <c r="U61" s="15">
+        <f t="shared" si="24"/>
+        <v>1.88</v>
+      </c>
+      <c r="V61" s="14">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="W61" s="14">
+        <v>9.5300000000000003E-3</v>
+      </c>
+      <c r="X61" s="14">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="Z61" s="17">
+        <f t="shared" si="25"/>
+        <v>0.56662999999999997</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="AB61" s="14">
+        <v>0.107</v>
+      </c>
+      <c r="AC61" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
+        <v>0</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1</v>
+      </c>
+      <c r="F62" s="14">
+        <v>3</v>
+      </c>
+      <c r="G62" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H62" s="14">
+        <v>0</v>
+      </c>
+      <c r="I62" s="14">
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K62" s="14">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L62" s="14">
+        <v>6.17</v>
+      </c>
+      <c r="M62" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="N62" s="14">
+        <v>2.81</v>
+      </c>
+      <c r="O62" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="P62" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>1.33</v>
+      </c>
+      <c r="R62" s="14">
+        <f t="shared" si="23"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="S62" s="14">
+        <f t="shared" si="23"/>
+        <v>1.3099999999999998</v>
+      </c>
+      <c r="T62" s="14">
+        <f t="shared" si="24"/>
+        <v>2.87</v>
+      </c>
+      <c r="U62" s="15">
+        <f t="shared" si="24"/>
+        <v>2.87</v>
+      </c>
+      <c r="V62" s="14">
+        <v>0.188</v>
+      </c>
+      <c r="W62" s="14">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="X62" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Z62" s="17">
+        <f t="shared" si="25"/>
+        <v>0.88559999999999994</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="AB62" s="14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AC62" s="14">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AD62" s="14">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="14">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="14">
+        <v>1</v>
+      </c>
+      <c r="F63" s="14">
+        <v>3</v>
+      </c>
+      <c r="G63" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K63" s="14">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L63" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="M63" s="14">
+        <v>2.36</v>
+      </c>
+      <c r="N63" s="14">
+        <v>0</v>
+      </c>
+      <c r="O63" s="14">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P63" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="R63" s="14">
+        <f t="shared" si="23"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S63" s="14">
+        <f t="shared" si="23"/>
+        <v>1.093</v>
+      </c>
+      <c r="T63" s="14">
+        <f t="shared" si="24"/>
+        <v>1.3299999999999998</v>
+      </c>
+      <c r="U63" s="15">
+        <f t="shared" si="24"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="V63" s="14">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="W63" s="14">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="X63" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="Z63" s="17">
+        <f t="shared" si="25"/>
+        <v>0.33125000000000004</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AB63" s="14">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="AC63" s="14">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="AD63" s="14">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="14">
+        <v>1</v>
+      </c>
+      <c r="F64" s="14">
+        <v>3</v>
+      </c>
+      <c r="G64" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
+        <v>1.43</v>
+      </c>
+      <c r="K64" s="14">
+        <v>2.52</v>
+      </c>
+      <c r="L64" s="14">
+        <v>4.34</v>
+      </c>
+      <c r="M64" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="N64" s="14">
+        <v>0</v>
+      </c>
+      <c r="O64" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P64" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R64" s="14">
+        <f t="shared" si="23"/>
+        <v>1.43</v>
+      </c>
+      <c r="S64" s="14">
+        <f t="shared" si="23"/>
+        <v>1.43</v>
+      </c>
+      <c r="T64" s="14">
+        <f t="shared" si="24"/>
+        <v>1.65</v>
+      </c>
+      <c r="U64" s="15">
+        <f t="shared" si="24"/>
+        <v>1.65</v>
+      </c>
+      <c r="V64" s="14">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="W64" s="14">
+        <v>4.9300000000000004E-3</v>
+      </c>
+      <c r="X64" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="Y64" s="14">
+        <v>7.46E-2</v>
+      </c>
+      <c r="Z64" s="17">
+        <f t="shared" si="25"/>
+        <v>0.69352999999999998</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AB64" s="14">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="AC64" s="14">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AD64" s="14">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="14">
+        <v>1</v>
+      </c>
+      <c r="F65" s="14">
+        <v>3</v>
+      </c>
+      <c r="G65" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K65" s="14">
+        <v>3.13</v>
+      </c>
+      <c r="L65" s="14">
+        <v>5.47</v>
+      </c>
+      <c r="M65" s="14">
+        <v>3.21</v>
+      </c>
+      <c r="N65" s="14">
+        <v>0</v>
+      </c>
+      <c r="O65" s="14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P65" s="14">
+        <v>3.62</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="R65" s="14">
+        <f t="shared" si="23"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="S65" s="14">
+        <f t="shared" si="23"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T65" s="14">
+        <f t="shared" si="24"/>
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="U65" s="15">
+        <f t="shared" si="24"/>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="V65" s="14">
+        <v>0.495</v>
+      </c>
+      <c r="W65" s="14">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="X65" s="14">
+        <v>0.311</v>
+      </c>
+      <c r="Y65" s="14">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="Z65" s="17">
+        <f t="shared" si="25"/>
+        <v>0.96304999999999996</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AB65" s="14">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AC65" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="AD65" s="14">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="Z66" s="22"/>
+    </row>
+    <row r="67" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="14">
+        <v>1</v>
+      </c>
+      <c r="F67" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67" s="14">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="K67" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L67" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="M67" s="14">
+        <v>1.98</v>
+      </c>
+      <c r="N67" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O67" s="14">
+        <v>1</v>
+      </c>
+      <c r="P67" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="Q67" s="14">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="R67" s="14">
+        <f t="shared" ref="R67:S72" si="26">J67-N67-$H67</f>
+        <v>1.05</v>
+      </c>
+      <c r="S67" s="14">
+        <f t="shared" si="26"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="T67" s="14">
+        <f t="shared" ref="T67:U72" si="27">L67-P67-$I67</f>
+        <v>1</v>
+      </c>
+      <c r="U67" s="15">
+        <f t="shared" si="27"/>
+        <v>0.998</v>
+      </c>
+      <c r="V67" s="14">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="W67" s="14">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="X67" s="14">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="Y67" s="14">
+        <v>1.2E-4</v>
+      </c>
+      <c r="Z67" s="17">
+        <f t="shared" ref="Z67:Z72" si="28">SUM(V67:Y67)</f>
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="AB67" s="14">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="AC67" s="14">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="AD67" s="14">
+        <v>2.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="14">
+        <v>1</v>
+      </c>
+      <c r="F68" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G68" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0</v>
+      </c>
+      <c r="I68" s="14">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <v>4.08</v>
+      </c>
+      <c r="K68" s="14">
+        <v>2.81</v>
+      </c>
+      <c r="L68" s="14">
+        <v>2.77</v>
+      </c>
+      <c r="M68" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="N68" s="14">
+        <v>2.38</v>
+      </c>
+      <c r="O68" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P68" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="Q68" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="R68" s="14">
+        <f t="shared" si="26"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="S68" s="14">
+        <f t="shared" si="26"/>
+        <v>1.7</v>
+      </c>
+      <c r="T68" s="14">
+        <f t="shared" si="27"/>
+        <v>1.07</v>
+      </c>
+      <c r="U68" s="15">
+        <f t="shared" si="27"/>
+        <v>1.08</v>
+      </c>
+      <c r="V68" s="14">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="W68" s="14">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="X68" s="14">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>5.9500000000000004E-3</v>
+      </c>
+      <c r="Z68" s="17">
+        <f t="shared" si="28"/>
+        <v>0.48175000000000001</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="AB68" s="14">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="AC68" s="14">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="AD68" s="14">
+        <v>7.5800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="14">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G69" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
+        <v>0</v>
+      </c>
+      <c r="J69" s="14">
+        <v>5.88</v>
+      </c>
+      <c r="K69" s="14">
+        <v>3.96</v>
+      </c>
+      <c r="L69" s="14">
+        <v>3.86</v>
+      </c>
+      <c r="M69" s="14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N69" s="14">
+        <v>3.22</v>
+      </c>
+      <c r="O69" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="P69" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="Q69" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="R69" s="14">
+        <f t="shared" si="26"/>
+        <v>2.6599999999999997</v>
+      </c>
+      <c r="S69" s="14">
+        <f t="shared" si="26"/>
+        <v>2.66</v>
+      </c>
+      <c r="T69" s="14">
+        <f t="shared" si="27"/>
+        <v>1.27</v>
+      </c>
+      <c r="U69" s="15">
+        <f t="shared" si="27"/>
+        <v>1.2700000000000002</v>
+      </c>
+      <c r="V69" s="14">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="W69" s="14">
+        <v>0.158</v>
+      </c>
+      <c r="X69" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="Z69" s="17">
+        <f t="shared" si="28"/>
+        <v>0.83449999999999991</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="AB69" s="14">
+        <v>0.247</v>
+      </c>
+      <c r="AC69" s="14">
+        <v>1.66</v>
+      </c>
+      <c r="AD69" s="14">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="14">
+        <v>1</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="14">
+        <v>1</v>
+      </c>
+      <c r="F70" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G70" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H70" s="14">
+        <v>0</v>
+      </c>
+      <c r="I70" s="14">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K70" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="L70" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="M70" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="N70" s="14">
+        <v>0</v>
+      </c>
+      <c r="O70" s="14">
+        <v>1</v>
+      </c>
+      <c r="P70" s="14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Q70" s="14">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="R70" s="14">
+        <f t="shared" si="26"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S70" s="14">
+        <f t="shared" si="26"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T70" s="14">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="U70" s="15">
+        <f t="shared" si="27"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="V70" s="14">
+        <v>0.107</v>
+      </c>
+      <c r="W70" s="14">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="X70" s="14">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>1.4300000000000001E-4</v>
+      </c>
+      <c r="Z70" s="17">
+        <f t="shared" si="28"/>
+        <v>0.111023</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="AB70" s="14">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="AC70" s="14">
+        <v>0.122</v>
+      </c>
+      <c r="AD70" s="14">
+        <v>2.0899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
+        <v>1</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="14">
+        <v>1</v>
+      </c>
+      <c r="F71" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G71" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
+        <v>2.98</v>
+      </c>
+      <c r="K71" s="14">
+        <v>4.01</v>
+      </c>
+      <c r="L71" s="14">
+        <v>4.07</v>
+      </c>
+      <c r="M71" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N71" s="14">
+        <v>0</v>
+      </c>
+      <c r="O71" s="14">
+        <v>1.03</v>
+      </c>
+      <c r="P71" s="14">
+        <v>3.06</v>
+      </c>
+      <c r="Q71" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="R71" s="14">
+        <f t="shared" si="26"/>
+        <v>2.98</v>
+      </c>
+      <c r="S71" s="14">
+        <f t="shared" si="26"/>
+        <v>2.9799999999999995</v>
+      </c>
+      <c r="T71" s="14">
+        <f t="shared" si="27"/>
+        <v>1.0100000000000002</v>
+      </c>
+      <c r="U71" s="15">
+        <f t="shared" si="27"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="V71" s="14">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="W71" s="14">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="X71" s="14">
+        <v>1.09E-2</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="Z71" s="17">
+        <f t="shared" si="28"/>
+        <v>0.67958000000000007</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>3.32E-2</v>
+      </c>
+      <c r="AB71" s="14">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="AC71" s="14">
+        <v>1.98</v>
+      </c>
+      <c r="AD71" s="14">
+        <v>4.0800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B72" s="14">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="14">
+        <v>1</v>
+      </c>
+      <c r="F72" s="14">
+        <v>-3</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H72" s="14">
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="K72" s="14">
+        <v>6.24</v>
+      </c>
+      <c r="L72" s="14">
+        <v>6.39</v>
+      </c>
+      <c r="M72" s="14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="N72" s="14">
+        <v>0</v>
+      </c>
+      <c r="O72" s="14">
+        <v>1.04</v>
+      </c>
+      <c r="P72" s="14">
+        <v>5.34</v>
+      </c>
+      <c r="Q72" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="R72" s="14">
+        <f t="shared" si="26"/>
+        <v>5.2</v>
+      </c>
+      <c r="S72" s="14">
+        <f t="shared" si="26"/>
+        <v>5.2</v>
+      </c>
+      <c r="T72" s="14">
+        <f t="shared" si="27"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="U72" s="15">
+        <f t="shared" si="27"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="V72" s="14">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="W72" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X72" s="14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Y72" s="14">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="Z72" s="17">
+        <f t="shared" si="28"/>
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="AB72" s="14">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="AC72" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="AD72" s="14">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="59"/>
+      <c r="G73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="Z73" s="61"/>
+    </row>
+    <row r="74" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B74" s="14">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="14">
+        <v>4</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
+        <v>0</v>
+      </c>
+      <c r="I74" s="14">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K74" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="L74" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="M74" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="N74" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="O74" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P74" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="Q74" s="14">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="R74" s="14">
+        <f t="shared" ref="R74:S82" si="29">J74-N74-$H74</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S74" s="14">
+        <f t="shared" si="29"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="T74" s="14">
+        <f t="shared" si="19"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="U74" s="15">
+        <f t="shared" si="19"/>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="V74" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="W74" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="X74" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="Z74" s="17">
+        <f>SUM(V74:Y74)</f>
+        <v>0.1416</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="AB74" s="14">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="AC74" s="14">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="AD74" s="14">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B75" s="14">
+        <v>1</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="14">
+        <v>4</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K75" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L75" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="M75" s="14">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="N75" s="14">
+        <v>0</v>
+      </c>
+      <c r="O75" s="14">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="P75" s="14">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Q75" s="14">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R75" s="14">
+        <f t="shared" si="29"/>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="S75" s="14">
+        <f t="shared" si="29"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="T75" s="14">
+        <f t="shared" ref="T75:U75" si="30">L75-P75-$I75</f>
+        <v>0.26699999999999996</v>
+      </c>
+      <c r="U75" s="15">
+        <f t="shared" si="30"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="V75" s="14">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="W75" s="14">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="X75" s="14">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Z75" s="17">
+        <f>SUM(V75:Y75)</f>
+        <v>0.191</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>9.2200000000000008E-3</v>
+      </c>
+      <c r="AB75" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC75" s="14">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="AD75" s="14">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="Z76" s="22"/>
+    </row>
+    <row r="77" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="14">
+        <v>1</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>1</v>
+      </c>
+      <c r="I77" s="14">
+        <v>1</v>
+      </c>
+      <c r="J77" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="K77" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="L77" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="M77" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="N77" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="O77" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="P77" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="Q77" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="R77" s="14">
+        <f t="shared" si="29"/>
+        <v>1.0300000000000002</v>
+      </c>
+      <c r="S77" s="14">
+        <f t="shared" si="29"/>
+        <v>1.0300000000000002</v>
+      </c>
+      <c r="T77" s="14">
+        <f t="shared" ref="T77:U82" si="31">L77-P77-$I77</f>
+        <v>1.0300000000000002</v>
+      </c>
+      <c r="U77" s="15">
+        <f t="shared" si="31"/>
+        <v>1.0300000000000002</v>
+      </c>
+      <c r="V77" s="14">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="W77" s="14">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="X77" s="14">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="Z77" s="17">
+        <f>SUM(V77:Y77)</f>
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>3.32E-2</v>
+      </c>
+      <c r="AB77" s="14">
+        <v>3.32E-2</v>
+      </c>
+      <c r="AC77" s="14">
+        <v>3.27E-2</v>
+      </c>
+      <c r="AD77" s="14">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="14">
+        <v>0</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="14">
+        <v>1</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15">
+        <v>0</v>
+      </c>
+      <c r="H78" s="14">
+        <v>1</v>
+      </c>
+      <c r="I78" s="14">
+        <v>1</v>
+      </c>
+      <c r="J78" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="K78" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="L78" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="M78" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="N78" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="O78" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="P78" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="Q78" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="R78" s="14">
+        <f t="shared" si="29"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="S78" s="14">
+        <f t="shared" si="29"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="T78" s="14">
+        <f t="shared" si="31"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="U78" s="15">
+        <f t="shared" si="31"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="V78" s="14">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="W78" s="14">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="X78" s="14">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="Y78" s="14">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="Z78" s="17">
+        <f>SUM(V78:Y78)</f>
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AB78" s="14">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AC78" s="14">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AD78" s="14">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
+        <v>0</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="14">
+        <v>1</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="14">
+        <v>1</v>
+      </c>
+      <c r="I79" s="14">
+        <v>1</v>
+      </c>
+      <c r="J79" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="K79" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="L79" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="M79" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="N79" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="O79" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="P79" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="Q79" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="R79" s="14">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="S79" s="14">
+        <f t="shared" si="29"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="T79" s="14">
+        <f t="shared" si="31"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="U79" s="15">
+        <f t="shared" si="31"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="V79" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="W79" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="X79" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="Y79" s="14">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="Z79" s="17">
+        <f t="shared" ref="Z79:Z87" si="32">SUM(V79:Y79)</f>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="AB79" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="AC79" s="14">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AD79" s="14">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
+        <v>1</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="14">
+        <v>1</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>1</v>
+      </c>
+      <c r="I80" s="14">
+        <v>1</v>
+      </c>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="14">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="S80" s="14">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="T80" s="14">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="U80" s="15">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
+      <c r="X80" s="44"/>
+      <c r="Y80" s="44"/>
+      <c r="Z80" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="44"/>
+      <c r="AC80" s="44"/>
+      <c r="AD80" s="44"/>
+    </row>
+    <row r="81" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="14">
+        <v>1</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>1</v>
+      </c>
+      <c r="I81" s="14">
+        <v>1</v>
+      </c>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="14">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="S81" s="14">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="T81" s="14">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="U81" s="15">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="V81" s="44"/>
+      <c r="W81" s="44"/>
+      <c r="X81" s="44"/>
+      <c r="Y81" s="44"/>
+      <c r="Z81" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="44"/>
+      <c r="AB81" s="44"/>
+      <c r="AC81" s="44"/>
+      <c r="AD81" s="44"/>
+    </row>
+    <row r="82" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
+        <v>1</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="14">
+        <v>1</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+      <c r="G82" s="15">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>1</v>
+      </c>
+      <c r="I82" s="14">
+        <v>1</v>
+      </c>
+      <c r="J82" s="14">
+        <v>3.37</v>
+      </c>
+      <c r="K82" s="14">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L82" s="14">
+        <v>4.99</v>
+      </c>
+      <c r="M82" s="14">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="N82" s="14">
+        <v>0</v>
+      </c>
+      <c r="O82" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="P82" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="Q82" s="14">
+        <v>1.82</v>
+      </c>
+      <c r="R82" s="14">
+        <f t="shared" si="29"/>
+        <v>2.37</v>
+      </c>
+      <c r="S82" s="14">
+        <f t="shared" si="29"/>
+        <v>2.37</v>
+      </c>
+      <c r="T82" s="14">
+        <f t="shared" si="31"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="U82" s="15">
+        <f>M82-Q82-$I82</f>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="V82" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="W82" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="X82" s="14">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="Y82" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Z82" s="17">
+        <f t="shared" si="32"/>
+        <v>0.86619999999999986</v>
+      </c>
+      <c r="AA82" s="14">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AB82" s="14">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="AC82" s="14">
+        <v>1.37</v>
+      </c>
+      <c r="AD82" s="14">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="20"/>
+      <c r="G83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="Z83" s="22"/>
+    </row>
+    <row r="84" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
+        <v>0</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" s="14">
+        <v>3</v>
+      </c>
+      <c r="G84" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="K84" s="14">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L84" s="14">
+        <v>1.28</v>
+      </c>
+      <c r="M84" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="N84" s="14">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="O84" s="14">
+        <v>0.251</v>
+      </c>
+      <c r="P84" s="14">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="Q84" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="R84" s="14">
+        <f t="shared" ref="R84:S87" si="33">J84-N84-$H84</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S84" s="14">
+        <f t="shared" si="33"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="T84" s="14">
+        <f t="shared" ref="T84:U87" si="34">L84-P84-$I84</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="U84" s="45">
+        <f t="shared" si="34"/>
+        <v>0.61</v>
+      </c>
+      <c r="V84" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="W84" s="14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="X84" s="14">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="Y84" s="14">
+        <v>0.183</v>
+      </c>
+      <c r="Z84" s="17">
+        <f t="shared" si="32"/>
+        <v>0.92399999999999993</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB84" s="14">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="AC84" s="14">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="AD84" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="14">
+        <v>1</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="14">
+        <v>3</v>
+      </c>
+      <c r="G85" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="K85" s="14">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="L85" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M85" s="14">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="N85" s="14">
+        <v>0</v>
+      </c>
+      <c r="O85" s="14">
+        <v>0.219</v>
+      </c>
+      <c r="P85" s="14">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R85" s="14">
+        <f t="shared" si="33"/>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="S85" s="14">
+        <f t="shared" si="33"/>
+        <v>0.41300000000000003</v>
+      </c>
+      <c r="T85" s="14">
+        <f t="shared" si="34"/>
+        <v>0.3680000000000001</v>
+      </c>
+      <c r="U85" s="45">
+        <f t="shared" si="34"/>
+        <v>0.371</v>
+      </c>
+      <c r="V85" s="14">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="W85" s="14">
+        <v>8.4600000000000005E-3</v>
+      </c>
+      <c r="X85" s="14">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="Y85" s="14">
+        <v>0.157</v>
+      </c>
+      <c r="Z85" s="17">
+        <f t="shared" si="32"/>
+        <v>0.97946</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AB85" s="14">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="AC85" s="14">
+        <v>0.214</v>
+      </c>
+      <c r="AD85" s="14">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="14">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" s="14">
+        <v>4</v>
+      </c>
+      <c r="G86" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="K86" s="14">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L86" s="14">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="M86" s="14">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N86" s="14">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O86" s="14">
+        <v>0.159</v>
+      </c>
+      <c r="P86" s="14">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="Q86" s="14">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R86" s="14">
+        <f t="shared" si="33"/>
+        <v>0.17399999999999993</v>
+      </c>
+      <c r="S86" s="14">
+        <f t="shared" si="33"/>
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="T86" s="14">
+        <f t="shared" si="34"/>
+        <v>0.41299999999999992</v>
+      </c>
+      <c r="U86" s="45">
+        <f t="shared" si="34"/>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="V86" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="W86" s="14">
+        <v>1.38E-2</v>
+      </c>
+      <c r="X86" s="14">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="Y86" s="14">
+        <v>0.128</v>
+      </c>
+      <c r="Z86" s="17">
+        <f t="shared" si="32"/>
+        <v>0.81280000000000008</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="AB86" s="14">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="AC86" s="14">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="AD86" s="14">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B87" s="14">
+        <v>1</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87" s="14">
+        <v>4</v>
+      </c>
+      <c r="G87" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H87" s="14">
+        <v>0</v>
+      </c>
+      <c r="I87" s="14">
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K87" s="14">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="L87" s="14">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="M87" s="14">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N87" s="14">
+        <v>0</v>
+      </c>
+      <c r="O87" s="14">
+        <v>0.157</v>
+      </c>
+      <c r="P87" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R87" s="14">
+        <f t="shared" si="33"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S87" s="14">
+        <f t="shared" si="33"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="T87" s="14">
+        <f t="shared" si="34"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="U87" s="45">
+        <f t="shared" si="34"/>
+        <v>0.28700000000000003</v>
+      </c>
+      <c r="V87" s="14">
+        <v>0.437</v>
+      </c>
+      <c r="W87" s="14">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="X87" s="14">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Y87" s="14">
+        <v>0.107</v>
+      </c>
+      <c r="Z87" s="17">
+        <f t="shared" si="32"/>
+        <v>0.93371999999999999</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="AB87" s="14">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="AC87" s="14">
+        <v>0.114</v>
+      </c>
+      <c r="AD87" s="14">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="20"/>
+      <c r="G88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="Z88" s="22"/>
+    </row>
+    <row r="89" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="14">
+        <v>0</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="14">
+        <v>2</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G89" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="K89" s="14">
+        <v>0.437</v>
+      </c>
+      <c r="L89" s="14">
+        <v>0.436</v>
+      </c>
+      <c r="M89" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="N89" s="14">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="O89" s="14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="P89" s="14">
+        <v>0.248</v>
+      </c>
+      <c r="Q89" s="14">
+        <v>0.187</v>
+      </c>
+      <c r="R89" s="14">
+        <f t="shared" ref="R89:S90" si="35">J89-N89-$H89</f>
+        <v>0.24200000000000005</v>
+      </c>
+      <c r="S89" s="14">
+        <f t="shared" si="35"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="T89" s="14">
+        <f t="shared" ref="T89:U90" si="36">L89-P89-$I89</f>
+        <v>0.188</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="36"/>
+        <v>0.188</v>
+      </c>
+      <c r="V89" s="14">
+        <v>0.222</v>
+      </c>
+      <c r="W89" s="14">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="X89" s="14">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="Y89" s="14">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="Z89" s="17">
+        <f t="shared" ref="Z89:Z96" si="37">SUM(V89:Y89)</f>
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="AA89" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="AB89" s="14">
+        <v>1.26E-2</v>
+      </c>
+      <c r="AC89" s="14">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="AD89" s="14">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="14">
+        <v>0</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="14">
+        <v>4</v>
+      </c>
+      <c r="F90" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G90" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H90" s="14">
+        <v>0</v>
+      </c>
+      <c r="I90" s="14">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
+        <v>1.65</v>
+      </c>
+      <c r="K90" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="L90" s="14">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="M90" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N90" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="O90" s="14">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="P90" s="14">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="Q90" s="14">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R90" s="14">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="S90" s="14">
+        <f t="shared" si="35"/>
+        <v>0.70700000000000007</v>
+      </c>
+      <c r="T90" s="14">
+        <f t="shared" si="36"/>
+        <v>0.29799999999999993</v>
+      </c>
+      <c r="U90" s="15">
+        <f t="shared" si="36"/>
+        <v>0.29799999999999993</v>
+      </c>
+      <c r="V90" s="14">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="W90" s="14">
+        <v>0.126</v>
+      </c>
+      <c r="X90" s="14">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Y90" s="14">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="Z90" s="17">
+        <f t="shared" si="37"/>
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AB90" s="14">
+        <v>4.19E-2</v>
+      </c>
+      <c r="AC90" s="14">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AD90" s="14">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B91" s="58">
+        <v>0</v>
+      </c>
+      <c r="C91" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="58">
+        <v>10</v>
+      </c>
+      <c r="E91" s="58">
+        <v>3</v>
+      </c>
+      <c r="F91" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G91" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H91" s="58">
+        <v>0</v>
+      </c>
+      <c r="I91" s="58">
+        <v>0</v>
+      </c>
+      <c r="J91" s="58">
+        <v>2.27</v>
+      </c>
+      <c r="K91" s="58">
+        <v>1.58</v>
+      </c>
+      <c r="L91" s="58">
+        <v>1.57</v>
+      </c>
+      <c r="M91" s="58">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N91" s="58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O91" s="58">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="P91" s="58">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q91" s="58">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="R91" s="58">
+        <f>J91-N91-$H91</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S91" s="58">
+        <f>K91-O91-$H91</f>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="T91" s="58">
+        <f>L91-P91-$I91</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="U91" s="60">
+        <f>M91-Q91-$I91</f>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="V91" s="58">
+        <v>0.504</v>
+      </c>
+      <c r="W91" s="58">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X91" s="58">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y91" s="58">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="Z91" s="61">
+        <f t="shared" si="37"/>
+        <v>0.9796999999999999</v>
+      </c>
+      <c r="AA91" s="58">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="AB91" s="58">
+        <v>0.125</v>
+      </c>
+      <c r="AC91" s="58">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AD91" s="58">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B92" s="58">
+        <v>0</v>
+      </c>
+      <c r="C92" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="58">
+        <v>11</v>
+      </c>
+      <c r="E92" s="58">
+        <v>4</v>
+      </c>
+      <c r="F92" s="58">
+        <v>-4</v>
+      </c>
+      <c r="G92" s="60">
+        <v>-4</v>
+      </c>
+      <c r="H92" s="58">
+        <v>0</v>
+      </c>
+      <c r="I92" s="58">
+        <v>0</v>
+      </c>
+      <c r="J92" s="58">
+        <v>2</v>
+      </c>
+      <c r="K92" s="58">
+        <v>1.3</v>
+      </c>
+      <c r="L92" s="58">
+        <v>1.28</v>
+      </c>
+      <c r="M92" s="58">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="N92" s="58">
+        <v>1.03</v>
+      </c>
+      <c r="O92" s="58">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P92" s="58">
+        <v>0.96</v>
+      </c>
+      <c r="Q92" s="58">
+        <v>0.31</v>
+      </c>
+      <c r="R92" s="58">
+        <f>J92-N92-$H92</f>
+        <v>0.97</v>
+      </c>
+      <c r="S92" s="58">
+        <f>K92-O92-$H92</f>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="T92" s="58">
+        <f>L92-P92-$I92</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="U92" s="60">
+        <f>M92-Q92-$I92</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="V92" s="58">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="W92" s="58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X92" s="58">
+        <v>0.183</v>
+      </c>
+      <c r="Y92" s="58">
+        <v>4.53E-2</v>
+      </c>
+      <c r="Z92" s="61">
+        <f t="shared" si="37"/>
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="AA92" s="58">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AB92" s="58">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="AC92" s="58">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AD92" s="58">
+        <v>7.4099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="14">
+        <v>1</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="14">
+        <v>2</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G93" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M93" s="14">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
+        <v>0.182</v>
+      </c>
+      <c r="P93" s="14">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="Q93" s="14">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R93" s="14">
+        <f t="shared" ref="R93:S94" si="38">J93-N93-$H93</f>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S93" s="14">
+        <f t="shared" si="38"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="T93" s="14">
+        <f t="shared" ref="T93:U94" si="39">L93-P93-$I93</f>
+        <v>0.18100000000000005</v>
+      </c>
+      <c r="U93" s="15">
+        <f t="shared" si="39"/>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="V93" s="14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="W93" s="14">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="X93" s="14">
+        <v>2.2120000000000001E-2</v>
+      </c>
+      <c r="Y93" s="14">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="Z93" s="17">
+        <f t="shared" si="37"/>
+        <v>0.52904999999999991</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>7.7099999999999998E-3</v>
+      </c>
+      <c r="AB93" s="14">
+        <v>5.62E-3</v>
+      </c>
+      <c r="AC93" s="14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AD93" s="14">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="14">
+        <v>1</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="14">
+        <v>4</v>
+      </c>
+      <c r="F94" s="14">
+        <v>-4</v>
+      </c>
+      <c r="G94" s="15">
+        <v>-4</v>
+      </c>
+      <c r="H94" s="14">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <v>1.48</v>
+      </c>
+      <c r="K94" s="14">
+        <v>1.73</v>
+      </c>
+      <c r="L94" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="M94" s="14">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N94" s="14">
+        <v>0</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0.251</v>
+      </c>
+      <c r="P94" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="Q94" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="R94" s="14">
+        <f t="shared" si="38"/>
+        <v>1.48</v>
+      </c>
+      <c r="S94" s="14">
+        <f t="shared" si="38"/>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="T94" s="14">
+        <f t="shared" si="39"/>
+        <v>0.25</v>
+      </c>
+      <c r="U94" s="15">
+        <f t="shared" si="39"/>
+        <v>0.255</v>
+      </c>
+      <c r="V94" s="14">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="W94" s="14">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="X94" s="14">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="Y94" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Z94" s="17">
+        <f t="shared" si="37"/>
+        <v>0.84802999999999995</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="AB94" s="14">
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="AC94" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="AD94" s="14">
+        <v>4.4400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95" s="58">
+        <v>1</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="58">
+        <v>10</v>
+      </c>
+      <c r="E95" s="58">
+        <v>3</v>
+      </c>
+      <c r="F95" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G95" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H95" s="58">
+        <v>0</v>
+      </c>
+      <c r="I95" s="58">
+        <v>0</v>
+      </c>
+      <c r="J95" s="58">
+        <v>2.35</v>
+      </c>
+      <c r="K95" s="58">
+        <v>2.7</v>
+      </c>
+      <c r="L95" s="58">
+        <v>2.79</v>
+      </c>
+      <c r="M95" s="58">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N95" s="58">
+        <v>0</v>
+      </c>
+      <c r="O95" s="58">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="P95" s="58">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q95" s="58">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="R95" s="58">
+        <f>J95-N95-$H95</f>
+        <v>2.35</v>
+      </c>
+      <c r="S95" s="58">
+        <f>K95-O95-$H95</f>
+        <v>2.3520000000000003</v>
+      </c>
+      <c r="T95" s="58">
+        <f>L95-P95-$I95</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="U95" s="60">
+        <f>M95-Q95-$I95</f>
+        <v>0.3670000000000001</v>
+      </c>
+      <c r="V95" s="58">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="W95" s="58">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="X95" s="58">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y95" s="58">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="Z95" s="61">
+        <f t="shared" si="37"/>
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="AA95" s="58">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AB95" s="58">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="AC95" s="58">
+        <v>2.02</v>
+      </c>
+      <c r="AD95" s="58">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="58">
+        <v>1</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="58">
+        <v>11</v>
+      </c>
+      <c r="E96" s="58">
+        <v>4</v>
+      </c>
+      <c r="F96" s="58">
+        <v>-4</v>
+      </c>
+      <c r="G96" s="60">
+        <v>-4</v>
+      </c>
+      <c r="H96" s="58">
+        <v>0</v>
+      </c>
+      <c r="I96" s="58">
+        <v>0</v>
+      </c>
+      <c r="J96" s="58">
+        <v>2.06</v>
+      </c>
+      <c r="K96" s="58">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L96" s="58">
+        <v>2.34</v>
+      </c>
+      <c r="M96" s="58">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N96" s="58">
+        <v>0</v>
+      </c>
+      <c r="O96" s="58">
+        <v>0.254</v>
+      </c>
+      <c r="P96" s="58">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q96" s="58">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="R96" s="58">
+        <f>J96-N96-$H96</f>
+        <v>2.06</v>
+      </c>
+      <c r="S96" s="58">
+        <f>K96-O96-$H96</f>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="T96" s="58">
+        <f>L96-P96-$I96</f>
+        <v>0.27</v>
+      </c>
+      <c r="U96" s="60">
+        <f>M96-Q96-$I96</f>
+        <v>0.26699999999999996</v>
+      </c>
+      <c r="V96" s="58">
+        <v>0.873</v>
+      </c>
+      <c r="W96" s="58">
+        <v>5.79E-3</v>
+      </c>
+      <c r="X96" s="58">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="Y96" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="Z96" s="61">
+        <f t="shared" si="37"/>
+        <v>0.94413999999999998</v>
+      </c>
+      <c r="AA96" s="58">
+        <v>1.11E-2</v>
+      </c>
+      <c r="AB96" s="58">
+        <v>2.93E-2</v>
+      </c>
+      <c r="AC96" s="58">
+        <v>1.81</v>
+      </c>
+      <c r="AD96" s="58">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="13"/>
+      <c r="G97" s="15"/>
+      <c r="U97" s="15"/>
+      <c r="Z97" s="17"/>
+    </row>
+    <row r="98" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="58">
+        <v>0</v>
+      </c>
+      <c r="C98" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="58">
+        <v>10</v>
+      </c>
+      <c r="E98" s="58">
+        <v>3</v>
+      </c>
+      <c r="F98" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G98" s="60">
+        <v>0</v>
+      </c>
+      <c r="H98" s="58">
+        <v>0</v>
+      </c>
+      <c r="I98" s="58">
+        <v>0</v>
+      </c>
+      <c r="J98" s="58">
+        <v>1.82</v>
+      </c>
+      <c r="K98" s="58">
+        <v>1.82</v>
+      </c>
+      <c r="L98" s="58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M98" s="58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N98" s="58">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O98" s="58">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P98" s="58">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Q98" s="58">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="R98" s="58">
+        <f t="shared" ref="R98:S105" si="40">J98-N98-$H98</f>
+        <v>1.155</v>
+      </c>
+      <c r="S98" s="58">
+        <f t="shared" si="40"/>
+        <v>1.155</v>
+      </c>
+      <c r="T98" s="58">
+        <f t="shared" ref="T98:U105" si="41">L98-P98-$I98</f>
+        <v>0.46899999999999986</v>
+      </c>
+      <c r="U98" s="60">
+        <f t="shared" si="41"/>
+        <v>0.46899999999999986</v>
+      </c>
+      <c r="V98" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W98" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="X98" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Y98" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z98" s="61">
+        <f t="shared" ref="Z98" si="42">SUM(V98:Y98)</f>
+        <v>0.996</v>
+      </c>
+      <c r="AA98" s="58">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AB98" s="58">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AC98" s="58">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AD98" s="58">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="58">
+        <v>1</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="58">
+        <v>10</v>
+      </c>
+      <c r="E99" s="58">
+        <v>3</v>
+      </c>
+      <c r="F99" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G99" s="60">
+        <v>0</v>
+      </c>
+      <c r="H99" s="58">
+        <v>0</v>
+      </c>
+      <c r="I99" s="58">
+        <v>0</v>
+      </c>
+      <c r="J99" s="58">
+        <v>2.11</v>
+      </c>
+      <c r="K99" s="58">
+        <v>2.56</v>
+      </c>
+      <c r="L99" s="58">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M99" s="58">
+        <v>1.66</v>
+      </c>
+      <c r="N99" s="58">
+        <v>0</v>
+      </c>
+      <c r="O99" s="58">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P99" s="58">
+        <v>2.14</v>
+      </c>
+      <c r="Q99" s="58">
+        <v>1.27</v>
+      </c>
+      <c r="R99" s="58">
+        <f t="shared" si="40"/>
+        <v>2.11</v>
+      </c>
+      <c r="S99" s="58">
+        <f t="shared" si="40"/>
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="T99" s="58">
+        <f t="shared" si="41"/>
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="U99" s="60">
+        <f t="shared" si="41"/>
+        <v>0.3899999999999999</v>
+      </c>
+      <c r="V99" s="58">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="W99" s="58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X99" s="58">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="Y99" s="58">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Z99" s="61">
+        <f>SUM(V99:Y99)</f>
+        <v>0.98365000000000002</v>
+      </c>
+      <c r="AA99" s="58">
+        <v>2.06E-2</v>
+      </c>
+      <c r="AB99" s="58">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AC99" s="58">
+        <v>1.78</v>
+      </c>
+      <c r="AD99" s="58">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="58">
+        <v>0</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="58">
+        <v>10</v>
+      </c>
+      <c r="E100" s="58">
+        <v>1</v>
+      </c>
+      <c r="F100" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G100" s="60">
+        <v>0</v>
+      </c>
+      <c r="H100" s="58">
+        <v>0</v>
+      </c>
+      <c r="I100" s="58">
+        <v>0</v>
+      </c>
+      <c r="J100" s="58">
+        <v>5.46</v>
+      </c>
+      <c r="K100" s="58">
+        <v>5.46</v>
+      </c>
+      <c r="L100" s="58">
+        <v>3.38</v>
+      </c>
+      <c r="M100" s="58">
+        <v>3.38</v>
+      </c>
+      <c r="N100" s="58">
+        <v>2</v>
+      </c>
+      <c r="O100" s="58">
+        <v>2</v>
+      </c>
+      <c r="P100" s="58">
+        <v>1.98</v>
+      </c>
+      <c r="Q100" s="58">
+        <v>1.98</v>
+      </c>
+      <c r="R100" s="58">
+        <f t="shared" si="40"/>
+        <v>3.46</v>
+      </c>
+      <c r="S100" s="58">
+        <f t="shared" si="40"/>
+        <v>3.46</v>
+      </c>
+      <c r="T100" s="58">
+        <f t="shared" si="41"/>
+        <v>1.4</v>
+      </c>
+      <c r="U100" s="60">
+        <f t="shared" si="41"/>
+        <v>1.4</v>
+      </c>
+      <c r="V100" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W100" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="X100" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Y100" s="58">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z100" s="61">
+        <f>SUM(V100:Y100)</f>
+        <v>0.996</v>
+      </c>
+      <c r="AA100" s="58">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB100" s="58">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AC100" s="58">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD100" s="58">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="58">
+        <v>1</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="58">
+        <v>10</v>
+      </c>
+      <c r="E101" s="58">
+        <v>1</v>
+      </c>
+      <c r="F101" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G101" s="60">
+        <v>0</v>
+      </c>
+      <c r="H101" s="58">
+        <v>0</v>
+      </c>
+      <c r="I101" s="58">
+        <v>0</v>
+      </c>
+      <c r="J101" s="58">
+        <v>6.35</v>
+      </c>
+      <c r="K101" s="58">
+        <v>7.7</v>
+      </c>
+      <c r="L101" s="58">
+        <v>7.6</v>
+      </c>
+      <c r="M101" s="58">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N101" s="58">
+        <v>0</v>
+      </c>
+      <c r="O101" s="58">
+        <v>1.35</v>
+      </c>
+      <c r="P101" s="58">
+        <v>6.43</v>
+      </c>
+      <c r="Q101" s="58">
+        <v>3.82</v>
+      </c>
+      <c r="R101" s="58">
+        <f t="shared" si="40"/>
+        <v>6.35</v>
+      </c>
+      <c r="S101" s="58">
+        <f t="shared" si="40"/>
+        <v>6.35</v>
+      </c>
+      <c r="T101" s="58">
+        <f t="shared" si="41"/>
+        <v>1.17</v>
+      </c>
+      <c r="U101" s="60">
+        <f t="shared" si="41"/>
+        <v>1.1600000000000006</v>
+      </c>
+      <c r="V101" s="58">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="W101" s="58">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="X101" s="58">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="Y101" s="58">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Z101" s="61">
+        <f t="shared" ref="Z101" si="43">SUM(V101:Y101)</f>
+        <v>0.98354999999999992</v>
+      </c>
+      <c r="AA101" s="58">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="AB101" s="58">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AC101" s="58">
+        <v>5.35</v>
+      </c>
+      <c r="AD101" s="58">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B102" s="14">
+        <v>0</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="14">
+        <v>10</v>
+      </c>
+      <c r="E102" s="14">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14">
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H102" s="14">
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
+        <v>0</v>
+      </c>
+      <c r="J102" s="14">
+        <v>5.47</v>
+      </c>
+      <c r="K102" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="L102" s="14">
+        <v>5.47</v>
+      </c>
+      <c r="M102" s="14">
+        <v>3.39</v>
+      </c>
+      <c r="N102" s="14">
+        <v>3.48</v>
+      </c>
+      <c r="O102" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="P102" s="14">
+        <v>3.48</v>
+      </c>
+      <c r="Q102" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="R102" s="14">
+        <f t="shared" si="40"/>
+        <v>1.9899999999999998</v>
+      </c>
+      <c r="S102" s="14">
+        <f t="shared" si="40"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="T102" s="14">
+        <f t="shared" si="41"/>
+        <v>1.9899999999999998</v>
+      </c>
+      <c r="U102" s="15">
+        <f t="shared" si="41"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="V102" s="14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="W102" s="14">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="X102" s="14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Y102" s="14">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Z102" s="17">
+        <f>SUM(V102:Y102)</f>
+        <v>0.996</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB102" s="14">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AC102" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD102" s="14">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="2:30" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B103" s="14">
+        <v>1</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="14">
+        <v>10</v>
+      </c>
+      <c r="E103" s="14">
+        <v>1</v>
+      </c>
+      <c r="F103" s="14">
+        <v>0</v>
+      </c>
+      <c r="G103" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H103" s="14">
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
+        <v>0</v>
+      </c>
+      <c r="J103" s="14">
+        <v>4.91</v>
+      </c>
+      <c r="K103" s="14">
+        <v>6.02</v>
+      </c>
+      <c r="L103" s="14">
+        <v>7.48</v>
+      </c>
+      <c r="M103" s="14">
+        <v>3.63</v>
+      </c>
+      <c r="N103" s="14">
+        <v>0</v>
+      </c>
+      <c r="O103" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P103" s="14">
+        <v>6.23</v>
+      </c>
+      <c r="Q103" s="14">
+        <v>2.39</v>
+      </c>
+      <c r="R103" s="14">
+        <f t="shared" si="40"/>
+        <v>4.91</v>
+      </c>
+      <c r="S103" s="14">
+        <f t="shared" si="40"/>
+        <v>4.9099999999999993</v>
+      </c>
+      <c r="T103" s="14">
+        <f t="shared" si="41"/>
+        <v>1.25</v>
+      </c>
+      <c r="U103" s="15">
+        <f t="shared" si="41"/>
+        <v>1.2399999999999998</v>
+      </c>
+      <c r="V103" s="14">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="W103" s="14">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="X103" s="14">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="Y103" s="14">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Z103" s="17">
+        <f t="shared" ref="Z103" si="44">SUM(V103:Y103)</f>
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="AA103" s="14">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="AB103" s="14">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AC103" s="14">
+        <v>3.91</v>
+      </c>
+      <c r="AD103" s="14">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="104" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B104" s="58">
+        <v>0</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="58">
+        <v>10</v>
+      </c>
+      <c r="E104" s="58">
+        <v>1</v>
+      </c>
+      <c r="F104" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G104" s="60">
+        <v>3</v>
+      </c>
+      <c r="H104" s="58">
+        <v>0</v>
+      </c>
+      <c r="I104" s="58">
+        <v>0</v>
+      </c>
+      <c r="J104" s="58">
+        <v>4.87</v>
+      </c>
+      <c r="K104" s="58">
+        <v>6.95</v>
+      </c>
+      <c r="L104" s="58">
+        <v>2.8</v>
+      </c>
+      <c r="M104" s="58">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N104" s="58">
+        <v>1.4</v>
+      </c>
+      <c r="O104" s="58">
+        <v>3.48</v>
+      </c>
+      <c r="P104" s="58">
+        <v>1.4</v>
+      </c>
+      <c r="Q104" s="58">
+        <v>3.46</v>
+      </c>
+      <c r="R104" s="58">
+        <f t="shared" si="40"/>
+        <v>3.47</v>
+      </c>
+      <c r="S104" s="58">
+        <f t="shared" si="40"/>
+        <v>3.47</v>
+      </c>
+      <c r="T104" s="58">
+        <f t="shared" si="41"/>
+        <v>1.4</v>
+      </c>
+      <c r="U104" s="60">
+        <f t="shared" si="41"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="V104" s="58">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="W104" s="58">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="X104" s="58">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="Y104" s="58">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Z104" s="61">
+        <f>SUM(V104:Y104)</f>
+        <v>0.99620000000000009</v>
+      </c>
+      <c r="AA104" s="58">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AB104" s="58">
+        <v>2.48</v>
+      </c>
+      <c r="AC104" s="58">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AD104" s="58">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B105" s="58">
+        <v>1</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="58">
+        <v>10</v>
+      </c>
+      <c r="E105" s="58">
+        <v>1</v>
+      </c>
+      <c r="F105" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G105" s="60">
+        <v>3</v>
+      </c>
+      <c r="H105" s="58">
+        <v>0</v>
+      </c>
+      <c r="I105" s="58">
+        <v>0</v>
+      </c>
+      <c r="J105" s="58">
+        <v>5.72</v>
+      </c>
+      <c r="K105" s="58">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="L105" s="58">
+        <v>6.77</v>
+      </c>
+      <c r="M105" s="58">
+        <v>6.5</v>
+      </c>
+      <c r="N105" s="58">
+        <v>0</v>
+      </c>
+      <c r="O105" s="58">
+        <v>2.64</v>
+      </c>
+      <c r="P105" s="58">
+        <v>5.57</v>
+      </c>
+      <c r="Q105" s="58">
+        <v>5.31</v>
+      </c>
+      <c r="R105" s="58">
+        <f t="shared" si="40"/>
+        <v>5.72</v>
+      </c>
+      <c r="S105" s="58">
+        <f t="shared" si="40"/>
+        <v>5.7299999999999986</v>
+      </c>
+      <c r="T105" s="58">
+        <f t="shared" si="41"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="U105" s="60">
+        <f t="shared" si="41"/>
+        <v>1.1900000000000004</v>
+      </c>
+      <c r="V105" s="58">
+        <v>0.34</v>
+      </c>
+      <c r="W105" s="58">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="X105" s="58">
+        <v>5.9699999999999996E-3</v>
+      </c>
+      <c r="Y105" s="58">
+        <v>0.156</v>
+      </c>
+      <c r="Z105" s="61">
+        <f t="shared" ref="Z105" si="45">SUM(V105:Y105)</f>
+        <v>0.98697000000000001</v>
+      </c>
+      <c r="AA105" s="58">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="AB105" s="58">
+        <v>2.11</v>
+      </c>
+      <c r="AC105" s="58">
+        <v>4.72</v>
+      </c>
+      <c r="AD105" s="58">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="106" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="58">
+        <v>0</v>
+      </c>
+      <c r="C106" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" s="58">
+        <v>10</v>
+      </c>
+      <c r="E106" s="58">
+        <v>3</v>
+      </c>
+      <c r="F106" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G106" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H106" s="58">
+        <v>0</v>
+      </c>
+      <c r="I106" s="58">
+        <v>0</v>
+      </c>
+      <c r="J106" s="58">
+        <v>6.81</v>
+      </c>
+      <c r="K106" s="58">
+        <v>4.75</v>
+      </c>
+      <c r="L106" s="58">
+        <v>4.72</v>
+      </c>
+      <c r="M106" s="58">
+        <v>2.74</v>
+      </c>
+      <c r="N106" s="58">
+        <v>3.45</v>
+      </c>
+      <c r="O106" s="58">
+        <v>1.39</v>
+      </c>
+      <c r="P106" s="58">
+        <v>3.33</v>
+      </c>
+      <c r="Q106" s="58">
+        <v>1.36</v>
+      </c>
+      <c r="R106" s="58">
+        <f>J106-N106-$H106</f>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="S106" s="58">
+        <f>K106-O106-$H106</f>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="T106" s="58">
+        <f>L106-P106-$I106</f>
+        <v>1.3899999999999997</v>
+      </c>
+      <c r="U106" s="60">
+        <f>M106-Q106-$I106</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="V106" s="58">
+        <v>0.504</v>
+      </c>
+      <c r="W106" s="58">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X106" s="58">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y106" s="58">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="Z106" s="61">
+        <f t="shared" ref="Z106" si="46">SUM(V106:Y106)</f>
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="AA106" s="58">
+        <v>2.42</v>
+      </c>
+      <c r="AB106" s="58">
+        <v>0.374</v>
+      </c>
+      <c r="AC106" s="58">
+        <v>2.36</v>
+      </c>
+      <c r="AD106" s="58">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:30" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="58">
+        <v>1</v>
+      </c>
+      <c r="C107" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="58">
+        <v>10</v>
+      </c>
+      <c r="E107" s="58">
+        <v>3</v>
+      </c>
+      <c r="F107" s="58">
+        <v>-3</v>
+      </c>
+      <c r="G107" s="60">
+        <v>-3</v>
+      </c>
+      <c r="H107" s="58">
+        <v>0</v>
+      </c>
+      <c r="I107" s="58">
+        <v>0</v>
+      </c>
+      <c r="J107" s="58">
+        <v>7.06</v>
+      </c>
+      <c r="K107" s="58">
+        <v>8.17</v>
+      </c>
+      <c r="L107" s="58">
+        <v>8.39</v>
+      </c>
+      <c r="M107" s="58">
+        <v>3.34</v>
+      </c>
+      <c r="N107" s="58">
+        <v>0</v>
+      </c>
+      <c r="O107" s="58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P107" s="58">
+        <v>7.28</v>
+      </c>
+      <c r="Q107" s="58">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R107" s="58">
+        <f>J107-N107-$H107</f>
+        <v>7.06</v>
+      </c>
+      <c r="S107" s="58">
+        <f>K107-O107-$H107</f>
+        <v>7.05</v>
+      </c>
+      <c r="T107" s="58">
+        <f>L107-P107-$I107</f>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="U107" s="60">
+        <f>M107-Q107-$I107</f>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="V107" s="58">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="W107" s="58">
+        <v>1.38E-2</v>
+      </c>
+      <c r="X107" s="58">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Y107" s="58">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Z107" s="61">
+        <f t="shared" ref="Z107" si="47">SUM(V107:Y107)</f>
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="AA107" s="58">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="AB107" s="58">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AC107" s="58">
+        <v>6.06</v>
+      </c>
+      <c r="AD107" s="58">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="108" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="13"/>
+      <c r="G108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="Z108" s="17"/>
+    </row>
+    <row r="109" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="13"/>
+      <c r="G109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="Z109" s="17"/>
+    </row>
+    <row r="110" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="13"/>
+      <c r="G110" s="15"/>
+      <c r="U110" s="15"/>
+      <c r="Z110" s="17"/>
+    </row>
+    <row r="111" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="13"/>
+      <c r="G111" s="15"/>
+      <c r="U111" s="15"/>
+      <c r="Z111" s="17"/>
+    </row>
+    <row r="112" spans="2:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="13"/>
+      <c r="G112" s="15"/>
+      <c r="U112" s="15"/>
+      <c r="Z112" s="17"/>
+    </row>
+    <row r="113" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="13"/>
+      <c r="G113" s="15"/>
+      <c r="U113" s="15"/>
+      <c r="Z113" s="17"/>
+    </row>
+    <row r="114" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="13"/>
+      <c r="G114" s="15"/>
+      <c r="U114" s="15"/>
+      <c r="Z114" s="17"/>
+    </row>
+    <row r="115" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="13"/>
+      <c r="G115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="Z115" s="17"/>
+    </row>
+    <row r="116" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="13"/>
+      <c r="G116" s="15"/>
+      <c r="U116" s="15"/>
+      <c r="Z116" s="17"/>
+    </row>
+    <row r="117" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="13"/>
+      <c r="G117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="Z117" s="17"/>
+    </row>
+    <row r="118" spans="3:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="10"/>
+      <c r="G118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="Z118" s="18"/>
+    </row>
+    <row r="119" spans="3:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="10"/>
+      <c r="G119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="Z119" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AA1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F9F313-BE4A-4F11-A03B-A50BC72B85F3}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13579,7 +23284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3912F778-FDDF-4685-8D38-AA1A357085F1}">
   <dimension ref="A1:AD33"/>
   <sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB35273-2173-49D7-8AC3-3E1FDD7E5BE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C9D5A-ACD5-4CD8-BEBD-F92D25A095B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11715" yWindow="1065" windowWidth="17085" windowHeight="14535" xr2:uid="{F802051B-2499-492A-8A25-373610B69535}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>intercept</t>
   </si>
@@ -143,27 +143,6 @@
   </si>
   <si>
     <t>Characteristics of B</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Store effect A</t>
-  </si>
-  <si>
-    <t>lambda A</t>
-  </si>
-  <si>
-    <t>lambda A + store</t>
-  </si>
-  <si>
-    <t>Horizontal Int Effect</t>
-  </si>
-  <si>
-    <t>Store effects 2</t>
-  </si>
-  <si>
-    <t>Store effects 1</t>
   </si>
 </sst>
 </file>
@@ -706,9 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70ABDB4-6AEF-4184-89E6-855BD3C5332D}">
   <dimension ref="A1:AP110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP26" sqref="AP26"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,137 +895,21 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7">
-        <v>2</v>
-      </c>
-      <c r="M3" s="8">
-        <v>3</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>1</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <v>1</v>
-      </c>
-      <c r="V3" s="7">
-        <v>3.08</v>
-      </c>
-      <c r="W3" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="X3" s="7">
-        <v>3.08</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>1.52</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>1.52</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="AD3" s="7">
-        <f t="shared" ref="AD3:AD14" si="0">V3-Z3-$T3</f>
-        <v>1.56</v>
-      </c>
-      <c r="AE3" s="7">
-        <f t="shared" ref="AE3:AE14" si="1">W3-AA3-$T3</f>
-        <v>1.56</v>
-      </c>
-      <c r="AF3" s="7">
-        <f t="shared" ref="AF3:AF14" si="2">X3-AB3-$U3</f>
-        <v>1.56</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" ref="AG3:AG14" si="3">Y3-AC3-$U3</f>
-        <v>1.56</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>0.157</v>
-      </c>
-      <c r="AI3" s="7">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>0.157</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="AL3" s="9">
-        <f t="shared" ref="AL3:AL15" si="4">SUM(AH3:AK3)</f>
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="AO3" s="7">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="AP3" s="7">
-        <v>0.56100000000000005</v>
-      </c>
+      <c r="A3" s="22"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="20"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="20"/>
+      <c r="J3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AL3" s="9"/>
     </row>
     <row r="4" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="20"/>
       <c r="F4" s="8"/>
       <c r="G4" s="20"/>
@@ -1054,207 +917,25 @@
       <c r="M4" s="8"/>
       <c r="P4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="V4" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W4" s="7">
-        <v>3.64</v>
-      </c>
-      <c r="X4" s="7">
-        <v>3.46</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>3.19</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>2.04</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AE4" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AF4" s="7">
-        <f t="shared" si="2"/>
-        <v>1.42</v>
-      </c>
-      <c r="AG4" s="8">
-        <f t="shared" si="3"/>
-        <v>1.42</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>0.129</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="AL4" s="9">
-        <f t="shared" si="4"/>
-        <v>0.75490000000000013</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>0.191</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AO4" s="7">
-        <v>1.01</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>2</v>
-      </c>
-      <c r="M5" s="8">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
-        <v>3.07</v>
-      </c>
-      <c r="W5" s="7">
-        <v>3.23</v>
-      </c>
-      <c r="X5" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1.57</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>1.73</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>1.61</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="2"/>
-        <v>1.72</v>
-      </c>
-      <c r="AG5" s="8">
-        <f t="shared" si="3"/>
-        <v>1.72</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="AL5" s="9">
-        <f t="shared" si="4"/>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="AO5" s="7">
-        <v>0.503</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>0.72</v>
-      </c>
+      <c r="AG4" s="8"/>
+      <c r="AL4" s="9"/>
+    </row>
+    <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="20"/>
+      <c r="J5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AL5" s="9"/>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="20"/>
       <c r="F6" s="8"/>
       <c r="G6" s="20"/>
@@ -1262,207 +943,25 @@
       <c r="M6" s="8"/>
       <c r="P6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="V6" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W6" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="X6" s="7">
-        <v>3.79</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>3.19</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>2.21</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="2"/>
-        <v>1.58</v>
-      </c>
-      <c r="AG6" s="8">
-        <f t="shared" si="3"/>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>0.115</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="AL6" s="9">
-        <f t="shared" si="4"/>
-        <v>0.7669999999999999</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>0.58199999999999996</v>
-      </c>
+      <c r="AG6" s="8"/>
+      <c r="AL6" s="9"/>
     </row>
     <row r="7" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>1</v>
-      </c>
-      <c r="V7" s="7">
-        <v>3.45</v>
-      </c>
-      <c r="W7" s="7">
-        <v>3.23</v>
-      </c>
-      <c r="X7" s="7">
-        <v>3.45</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>3.23</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1.81</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>1.81</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="AE7" s="7">
-        <f t="shared" si="1"/>
-        <v>1.63</v>
-      </c>
-      <c r="AF7" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="AG7" s="8">
-        <f t="shared" si="3"/>
-        <v>1.63</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="AL7" s="9">
-        <f t="shared" si="4"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>0.63600000000000001</v>
-      </c>
+      <c r="A7" s="22"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="20"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="20"/>
+      <c r="J7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AL7" s="9"/>
     </row>
     <row r="8" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1482,207 +981,44 @@
       <c r="S8" s="8"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7">
-        <v>2.62</v>
-      </c>
-      <c r="W8" s="7">
-        <v>3.89</v>
-      </c>
-      <c r="X8" s="7">
-        <v>3.87</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>2.44</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="AD8" s="7">
-        <f t="shared" si="0"/>
-        <v>2.62</v>
-      </c>
-      <c r="AE8" s="7">
-        <f t="shared" si="1"/>
-        <v>2.63</v>
-      </c>
-      <c r="AF8" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="AG8" s="8">
-        <f t="shared" si="3"/>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0.123</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AL8" s="9">
-        <f t="shared" si="4"/>
-        <v>0.80449999999999999</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>1.32</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>0.42799999999999999</v>
-      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
     </row>
     <row r="9" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>2</v>
-      </c>
-      <c r="M9" s="8">
-        <v>3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>1</v>
-      </c>
-      <c r="V9" s="7">
-        <v>2.71</v>
-      </c>
-      <c r="W9" s="7">
-        <v>3.48</v>
-      </c>
-      <c r="X9" s="7">
-        <v>2.71</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>3.48</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>2.02</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>2.02</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="0"/>
-        <v>1.46</v>
-      </c>
-      <c r="AE9" s="7">
-        <f t="shared" si="1"/>
-        <v>1.46</v>
-      </c>
-      <c r="AF9" s="7">
-        <f t="shared" si="2"/>
-        <v>1.46</v>
-      </c>
-      <c r="AG9" s="8">
-        <f t="shared" si="3"/>
-        <v>1.46</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="AL9" s="9">
-        <f t="shared" si="4"/>
-        <v>0.63280000000000003</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>0.224</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>0.46200000000000002</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="20"/>
+      <c r="J9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AL9" s="9"/>
     </row>
     <row r="10" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="20"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1702,207 +1038,44 @@
       <c r="S10" s="8"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="7">
-        <v>1.79</v>
-      </c>
-      <c r="W10" s="7">
-        <v>3.54</v>
-      </c>
-      <c r="X10" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>3.36</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>1.75</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>1.66</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>1.96</v>
-      </c>
-      <c r="AD10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.79</v>
-      </c>
-      <c r="AE10" s="7">
-        <f t="shared" si="1"/>
-        <v>1.79</v>
-      </c>
-      <c r="AF10" s="7">
-        <f t="shared" si="2"/>
-        <v>1.39</v>
-      </c>
-      <c r="AG10" s="8">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="AH10" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="AI10" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="AL10" s="9">
-        <f t="shared" si="4"/>
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="AM10" s="7">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AO10" s="7">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="AP10" s="7">
-        <v>0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>1</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>1</v>
-      </c>
-      <c r="V11" s="7">
-        <v>3.44</v>
-      </c>
-      <c r="W11" s="7">
-        <v>3.13</v>
-      </c>
-      <c r="X11" s="7">
-        <v>3.98</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>3.26</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>1.88</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>1.57</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>1.46</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
-      </c>
-      <c r="AE11" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5599999999999998</v>
-      </c>
-      <c r="AF11" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="AG11" s="8">
-        <f t="shared" si="3"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>0.188</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="AJ11" s="7">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="AL11" s="9">
-        <f t="shared" si="4"/>
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AP11" s="7">
-        <v>0.80400000000000005</v>
-      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+    </row>
+    <row r="11" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="20"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="20"/>
+      <c r="J11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AL11" s="9"/>
     </row>
     <row r="12" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="20"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1922,207 +1095,44 @@
       <c r="S12" s="8"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="W12" s="7">
-        <v>3.99</v>
-      </c>
-      <c r="X12" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>3.12</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>2.66</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>1.51</v>
-      </c>
-      <c r="AD12" s="7">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="AE12" s="7">
-        <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="AF12" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6099999999999994</v>
-      </c>
-      <c r="AG12" s="8">
-        <f t="shared" si="3"/>
-        <v>1.61</v>
-      </c>
-      <c r="AH12" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AI12" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ12" s="7">
-        <v>0.215</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AL12" s="9">
-        <f t="shared" si="4"/>
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="AM12" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AN12" s="7">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="AO12" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="AP12" s="7">
-        <v>0.61599999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7">
-        <v>2</v>
-      </c>
-      <c r="M13" s="8">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="O13" s="7">
-        <v>2</v>
-      </c>
-      <c r="P13" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="R13" s="7">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="8">
-        <v>-1</v>
-      </c>
-      <c r="V13" s="7">
-        <v>3.11</v>
-      </c>
-      <c r="W13" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="X13" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>1.31</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>2.68</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>2.98</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.42999999999999972</v>
-      </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.68099999999999994</v>
-      </c>
-      <c r="AF13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.54</v>
-      </c>
-      <c r="AG13" s="8">
-        <f t="shared" si="3"/>
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="AJ13" s="7">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="AL13" s="9">
-        <f t="shared" si="4"/>
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>0.182</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>0.30099999999999999</v>
-      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+    </row>
+    <row r="13" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="20"/>
+      <c r="J13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="20"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2142,207 +1152,44 @@
       <c r="S14" s="8"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7">
-        <v>3.13</v>
-      </c>
-      <c r="W14" s="7">
-        <v>4.79</v>
-      </c>
-      <c r="X14" s="7">
-        <v>3.67</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>1.31</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>1.41</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>3.23</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="AD14" s="7">
-        <f t="shared" si="0"/>
-        <v>3.13</v>
-      </c>
-      <c r="AE14" s="7">
-        <f t="shared" si="1"/>
-        <v>3.38</v>
-      </c>
-      <c r="AF14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="AG14" s="8">
-        <f t="shared" si="3"/>
-        <v>0.70100000000000007</v>
-      </c>
-      <c r="AH14" s="7">
-        <v>0.505</v>
-      </c>
-      <c r="AI14" s="11">
-        <v>2.62E-5</v>
-      </c>
-      <c r="AJ14" s="7">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="AK14" s="7">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="AL14" s="9">
-        <f t="shared" si="4"/>
-        <v>0.93872619999999996</v>
-      </c>
-      <c r="AM14" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="AN14" s="7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>1.58</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7">
-        <v>2</v>
-      </c>
-      <c r="M15" s="8">
-        <v>2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2</v>
-      </c>
-      <c r="O15" s="7">
-        <v>3</v>
-      </c>
-      <c r="P15" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S15" s="8">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="W15" s="7">
-        <v>2.21</v>
-      </c>
-      <c r="X15" s="7">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>1.01</v>
-      </c>
-      <c r="AD15" s="7">
-        <f t="shared" ref="AD15:AD16" si="5">V15-Z15-$T15</f>
-        <v>0.43799999999999994</v>
-      </c>
-      <c r="AE15" s="7">
-        <f t="shared" ref="AE15:AE16" si="6">W15-AA15-$T15</f>
-        <v>1.1099999999999999</v>
-      </c>
-      <c r="AF15" s="7">
-        <f t="shared" ref="AF15:AF16" si="7">X15-AB15-$U15</f>
-        <v>0.82000000000000028</v>
-      </c>
-      <c r="AG15" s="8">
-        <f t="shared" ref="AG15:AG16" si="8">Y15-AC15-$U15</f>
-        <v>1.4800000000000002</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="AI15" s="7">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="AL15" s="9">
-        <f t="shared" ref="AL15:AL16" si="9">SUM(AH15:AK15)</f>
-        <v>0.73620000000000008</v>
-      </c>
-      <c r="AM15" s="7">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="AN15" s="7">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>0.105</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>0.48</v>
-      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+    </row>
+    <row r="15" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="20"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="20"/>
+      <c r="J15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AL15" s="9"/>
     </row>
     <row r="16" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="20"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2362,207 +1209,44 @@
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="W16" s="7">
-        <v>3</v>
-      </c>
-      <c r="X16" s="7">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>1.08</v>
-      </c>
-      <c r="AB16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AD16" s="7">
-        <f t="shared" si="5"/>
-        <v>1.26</v>
-      </c>
-      <c r="AE16" s="7">
-        <f t="shared" si="6"/>
-        <v>1.92</v>
-      </c>
-      <c r="AF16" s="7">
-        <f t="shared" si="7"/>
-        <v>0.7799999999999998</v>
-      </c>
-      <c r="AG16" s="8">
-        <f t="shared" si="8"/>
-        <v>1.4399999999999997</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="AI16" s="27">
-        <v>1.46E-2</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="AL16" s="9">
-        <f t="shared" si="9"/>
-        <v>0.70539999999999992</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="AN16" s="7">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>0.249</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2</v>
-      </c>
-      <c r="M17" s="8">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2</v>
-      </c>
-      <c r="O17" s="7">
-        <v>3</v>
-      </c>
-      <c r="P17" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="8">
-        <v>1</v>
-      </c>
-      <c r="V17" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="W17" s="7">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="X17" s="7">
-        <v>3.24</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>3.01</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>1.28</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>1.86</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AD17" s="7">
-        <f t="shared" ref="AD17:AD18" si="10">V17-Z17-$T17</f>
-        <v>0.75</v>
-      </c>
-      <c r="AE17" s="7">
-        <f t="shared" ref="AE17:AE18" si="11">W17-AA17-$T17</f>
-        <v>1.2499999999999998</v>
-      </c>
-      <c r="AF17" s="7">
-        <f t="shared" ref="AF17:AF18" si="12">X17-AB17-$U17</f>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="AG17" s="8">
-        <f t="shared" ref="AG17:AG18" si="13">Y17-AC17-$U17</f>
-        <v>1.88</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>0.127</v>
-      </c>
-      <c r="AL17" s="9">
-        <f t="shared" ref="AL17:AL18" si="14">SUM(AH17:AK17)</f>
-        <v>0.87170000000000003</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AN17" s="7">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>0.247</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>0.88100000000000001</v>
-      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+    </row>
+    <row r="17" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="20"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="20"/>
+      <c r="J17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AL17" s="9"/>
     </row>
     <row r="18" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="20"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2582,207 +1266,44 @@
       <c r="S18" s="8"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="7">
-        <v>1.93</v>
-      </c>
-      <c r="W18" s="7">
-        <v>3.57</v>
-      </c>
-      <c r="X18" s="7">
-        <v>3.41</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>3.14</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>2.12</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>1.34</v>
-      </c>
-      <c r="AD18" s="7">
-        <f t="shared" si="10"/>
-        <v>1.93</v>
-      </c>
-      <c r="AE18" s="7">
-        <f t="shared" si="11"/>
-        <v>2.44</v>
-      </c>
-      <c r="AF18" s="7">
-        <f t="shared" si="12"/>
-        <v>1.29</v>
-      </c>
-      <c r="AG18" s="8">
-        <f t="shared" si="13"/>
-        <v>1.8</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="AI18" s="27">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="AJ18" s="7">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="AL18" s="9">
-        <f t="shared" si="14"/>
-        <v>0.83510000000000006</v>
-      </c>
-      <c r="AM18" s="7">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="AN18" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="AO18" s="7">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="AP18" s="7">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8">
-        <v>5</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2</v>
-      </c>
-      <c r="L19" s="7">
-        <v>2</v>
-      </c>
-      <c r="M19" s="8">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2</v>
-      </c>
-      <c r="O19" s="7">
-        <v>3</v>
-      </c>
-      <c r="P19" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="S19" s="8">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7">
-        <v>1.49</v>
-      </c>
-      <c r="W19" s="7">
-        <v>2.52</v>
-      </c>
-      <c r="X19" s="7">
-        <v>3.22</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>3.04</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>1.37</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>1.79</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" ref="AD19:AD22" si="15">V19-Z19-$T19</f>
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="AE19" s="7">
-        <f t="shared" ref="AE19:AE22" si="16">W19-AA19-$T19</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AF19" s="7">
-        <f t="shared" ref="AF19:AF22" si="17">X19-AB19-$U19</f>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="AG19" s="8">
-        <f t="shared" ref="AG19:AG22" si="18">Y19-AC19-$U19</f>
-        <v>1.92</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="AJ19" s="7">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>0.124</v>
-      </c>
-      <c r="AL19" s="9">
-        <f t="shared" ref="AL19:AL22" si="19">SUM(AH19:AK19)</f>
-        <v>0.78669999999999995</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="AN19" s="7">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>0.156</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>0.92900000000000005</v>
-      </c>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+    </row>
+    <row r="19" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="20"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="20"/>
+      <c r="J19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AL19" s="9"/>
     </row>
     <row r="20" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="20"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2802,207 +1323,44 @@
       <c r="S20" s="8"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="7">
-        <v>1.62</v>
-      </c>
-      <c r="W20" s="7">
-        <v>3.36</v>
-      </c>
-      <c r="X20" s="7">
-        <v>3.34</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>3.11</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="15"/>
-        <v>1.62</v>
-      </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="16"/>
-        <v>2.12</v>
-      </c>
-      <c r="AF20" s="7">
-        <f t="shared" si="17"/>
-        <v>1.44</v>
-      </c>
-      <c r="AG20" s="8">
-        <f t="shared" si="18"/>
-        <v>1.41</v>
-      </c>
-      <c r="AH20" s="7">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="AI20" s="27">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="AJ20" s="7">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="AK20" s="7">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="AL20" s="9">
-        <f t="shared" si="19"/>
-        <v>0.74030000000000007</v>
-      </c>
-      <c r="AM20" s="7">
-        <v>0.879</v>
-      </c>
-      <c r="AN20" s="7">
-        <v>0.215</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="AP20" s="7">
-        <v>0.93799999999999994</v>
-      </c>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="7">
-        <v>2</v>
-      </c>
-      <c r="M21" s="8">
-        <v>2</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
-      <c r="P21" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>1</v>
-      </c>
-      <c r="R21" s="7">
-        <v>1</v>
-      </c>
-      <c r="S21" s="8">
-        <v>1</v>
-      </c>
-      <c r="V21" s="7">
-        <v>2.96</v>
-      </c>
-      <c r="W21" s="7">
-        <v>2.96</v>
-      </c>
-      <c r="X21" s="7">
-        <v>2.96</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>2.96</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>1.52</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>1.52</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>1.52</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>1.52</v>
-      </c>
-      <c r="AD21" s="7">
-        <f t="shared" si="15"/>
-        <v>1.44</v>
-      </c>
-      <c r="AE21" s="7">
-        <f t="shared" si="16"/>
-        <v>1.44</v>
-      </c>
-      <c r="AF21" s="7">
-        <f t="shared" si="17"/>
-        <v>1.44</v>
-      </c>
-      <c r="AG21" s="8">
-        <f t="shared" si="18"/>
-        <v>1.44</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>0.152</v>
-      </c>
-      <c r="AI21" s="7">
-        <v>0.152</v>
-      </c>
-      <c r="AJ21" s="7">
-        <v>0.152</v>
-      </c>
-      <c r="AK21" s="7">
-        <v>0.152</v>
-      </c>
-      <c r="AL21" s="9">
-        <f t="shared" si="19"/>
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="AM21" s="7">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="AN21" s="7">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>0.435</v>
-      </c>
-      <c r="AP21" s="7">
-        <v>0.435</v>
-      </c>
+      <c r="A21" s="22"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="20"/>
+      <c r="J21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AL21" s="9"/>
     </row>
     <row r="22" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="20"/>
       <c r="F22" s="8"/>
       <c r="G22" s="20"/>
@@ -3010,207 +1368,25 @@
       <c r="M22" s="8"/>
       <c r="P22" s="8"/>
       <c r="S22" s="8"/>
-      <c r="V22" s="7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="W22" s="7">
-        <v>3.32</v>
-      </c>
-      <c r="X22" s="7">
-        <v>3.29</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>2.81</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>1.29</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>1.96</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>1.49</v>
-      </c>
-      <c r="AD22" s="7">
-        <f t="shared" si="15"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AE22" s="7">
-        <f t="shared" si="16"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AF22" s="7">
-        <f t="shared" si="17"/>
-        <v>1.33</v>
-      </c>
-      <c r="AG22" s="8">
-        <f t="shared" si="18"/>
-        <v>1.32</v>
-      </c>
-      <c r="AH22" s="7">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="AI22" s="7">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="AJ22" s="7">
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="AK22" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="AL22" s="9">
-        <f t="shared" si="19"/>
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="AM22" s="7">
-        <v>0.184</v>
-      </c>
-      <c r="AN22" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="AO22" s="7">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="AP22" s="7">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2</v>
-      </c>
-      <c r="L23" s="7">
-        <v>2</v>
-      </c>
-      <c r="M23" s="8">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7">
-        <v>1</v>
-      </c>
-      <c r="P23" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="8">
-        <v>1</v>
-      </c>
-      <c r="V23" s="7">
-        <v>2.89</v>
-      </c>
-      <c r="W23" s="7">
-        <v>2.89</v>
-      </c>
-      <c r="X23" s="7">
-        <v>3.39</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>3.39</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>1.54</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>1.54</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>1.65</v>
-      </c>
-      <c r="AC23" s="7">
-        <v>1.65</v>
-      </c>
-      <c r="AD23" s="7">
-        <f t="shared" ref="AD23:AD24" si="20">V23-Z23-$T23</f>
-        <v>1.35</v>
-      </c>
-      <c r="AE23" s="7">
-        <f t="shared" ref="AE23:AE24" si="21">W23-AA23-$T23</f>
-        <v>1.35</v>
-      </c>
-      <c r="AF23" s="7">
-        <f t="shared" ref="AF23:AF24" si="22">X23-AB23-$U23</f>
-        <v>1.7400000000000002</v>
-      </c>
-      <c r="AG23" s="8">
-        <f t="shared" ref="AG23:AG24" si="23">Y23-AC23-$U23</f>
-        <v>1.7400000000000002</v>
-      </c>
-      <c r="AH23" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="AI23" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="AJ23" s="7">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="AK23" s="7">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="AL23" s="9">
-        <f t="shared" ref="AL23:AL24" si="24">SUM(AH23:AK23)</f>
-        <v>0.68599999999999994</v>
-      </c>
-      <c r="AM23" s="7">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="AN23" s="7">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="AO23" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="AP23" s="7">
-        <v>0.74099999999999999</v>
-      </c>
+      <c r="AG22" s="8"/>
+      <c r="AL22" s="9"/>
+    </row>
+    <row r="23" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="20"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="20"/>
+      <c r="J23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AL23" s="9"/>
     </row>
     <row r="24" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="20"/>
       <c r="F24" s="8"/>
       <c r="G24" s="20"/>
@@ -3218,207 +1394,25 @@
       <c r="M24" s="8"/>
       <c r="P24" s="8"/>
       <c r="S24" s="8"/>
-      <c r="V24" s="7">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="W24" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="X24" s="7">
-        <v>3.55</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>3.26</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>1.32</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>1.95</v>
-      </c>
-      <c r="AC24" s="7">
-        <v>1.66</v>
-      </c>
-      <c r="AD24" s="7">
-        <f t="shared" si="20"/>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AE24" s="7">
-        <f t="shared" si="21"/>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AF24" s="7">
-        <f t="shared" si="22"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="AG24" s="8">
-        <f t="shared" si="23"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="AH24" s="7">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="AI24" s="7">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="AJ24" s="7">
-        <v>0.161</v>
-      </c>
-      <c r="AK24" s="7">
-        <v>0.214</v>
-      </c>
-      <c r="AL24" s="9">
-        <f t="shared" si="24"/>
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="AM24" s="7">
-        <v>0.313</v>
-      </c>
-      <c r="AN24" s="7">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="AO24" s="7">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="AP24" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
-        <v>-1</v>
-      </c>
-      <c r="K25" s="7">
-        <v>2</v>
-      </c>
-      <c r="L25" s="7">
-        <v>2</v>
-      </c>
-      <c r="M25" s="8">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7">
-        <v>1</v>
-      </c>
-      <c r="P25" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25" s="8">
-        <v>1</v>
-      </c>
-      <c r="V25" s="7">
-        <v>3.02</v>
-      </c>
-      <c r="W25" s="7">
-        <v>3.02</v>
-      </c>
-      <c r="X25" s="7">
-        <v>2.62</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>2.62</v>
-      </c>
-      <c r="Z25" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>1.39</v>
-      </c>
-      <c r="AC25" s="7">
-        <v>1.39</v>
-      </c>
-      <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AD26" si="25">V25-Z25-$T25</f>
-        <v>1.52</v>
-      </c>
-      <c r="AE25" s="7">
-        <f t="shared" ref="AE25:AE26" si="26">W25-AA25-$T25</f>
-        <v>1.52</v>
-      </c>
-      <c r="AF25" s="7">
-        <f t="shared" ref="AF25:AF26" si="27">X25-AB25-$U25</f>
-        <v>1.2300000000000002</v>
-      </c>
-      <c r="AG25" s="8">
-        <f t="shared" ref="AG25:AG26" si="28">Y25-AC25-$U25</f>
-        <v>1.2300000000000002</v>
-      </c>
-      <c r="AH25" s="7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="AI25" s="7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="AJ25" s="7">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="AK25" s="7">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="AL25" s="9">
-        <f t="shared" ref="AL25:AL26" si="29">SUM(AH25:AK25)</f>
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="AM25" s="7">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="AN25" s="7">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="AO25" s="7">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="AP25" s="7">
-        <v>0.23</v>
-      </c>
+      <c r="AG24" s="8"/>
+      <c r="AL24" s="9"/>
+    </row>
+    <row r="25" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="20"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="20"/>
+      <c r="J25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AL25" s="9"/>
     </row>
     <row r="26" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="20"/>
       <c r="F26" s="8"/>
       <c r="G26" s="20"/>
@@ -3426,74 +1420,8 @@
       <c r="M26" s="8"/>
       <c r="P26" s="8"/>
       <c r="S26" s="8"/>
-      <c r="V26" s="7">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="W26" s="7">
-        <v>3.32</v>
-      </c>
-      <c r="X26" s="7">
-        <v>3.17</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>1.31</v>
-      </c>
-      <c r="AD26" s="7">
-        <f t="shared" si="25"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AE26" s="7">
-        <f t="shared" si="26"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AF26" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1600000000000001</v>
-      </c>
-      <c r="AG26" s="8">
-        <f t="shared" si="28"/>
-        <v>1.1600000000000001</v>
-      </c>
-      <c r="AH26" s="7">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="AI26" s="7">
-        <v>0.106</v>
-      </c>
-      <c r="AJ26" s="7">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="AK26" s="7">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="AL26" s="9">
-        <f t="shared" si="29"/>
-        <v>0.60820000000000007</v>
-      </c>
-      <c r="AM26" s="7">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="AN26" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="AO26" s="7">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="AP26" s="7">
-        <v>0.156</v>
-      </c>
+      <c r="AG26" s="8"/>
+      <c r="AL26" s="9"/>
     </row>
     <row r="27" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
